--- a/en/shell/Shell_Script_Development_Standard.xlsx
+++ b/en/shell/Shell_Script_Development_Standard.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D629DD05-6FC3-4EBE-9292-782AC1A64DBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32890F8A-F85B-4E81-AFCF-65A5A9F7AA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="1905" windowWidth="27855" windowHeight="12840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="21" state="hidden" r:id="rId1"/>
@@ -38,7 +38,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="439">
   <si>
     <t>else</t>
   </si>
@@ -702,21 +704,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Sample script that complies with script protocol</t>
-    </r>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">3.1. </t>
     </r>
     <r>
@@ -1151,29 +1138,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Script protocol</t>
-    </r>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2. Script protocol</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2.1.1. Shell script naming protocol</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
       <t>S</t>
     </r>
     <r>
@@ -2883,10 +2847,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>3. Sample script that complies with script protocol</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">3.1. </t>
     </r>
@@ -4604,20 +4564,6 @@
   </si>
   <si>
     <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>elow are examples of script that complies with the script protocol.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>T</t>
     </r>
     <r>
@@ -4637,6 +4583,18 @@
   <si>
     <t>3.1.1. Sample script configuration</t>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2. Script convention</t>
+  </si>
+  <si>
+    <t>3. Sample script that complies with script convention</t>
+  </si>
+  <si>
+    <t>2.1.1. Shell script naming convention</t>
+  </si>
+  <si>
+    <t>Below are examples of script that complies with the script convention.</t>
   </si>
 </sst>
 </file>
@@ -5276,81 +5234,6 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5462,6 +5345,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5471,6 +5429,27 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -5518,26 +5497,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5552,31 +5525,25 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5587,14 +5554,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5621,33 +5606,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5703,8 +5661,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -11978,57 +11936,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="135" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="141" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="150" t="s">
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="132" t="s">
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="134" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="126">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="101">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="128"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="103"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -12036,53 +11994,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="132" t="s">
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="138" t="str">
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="113" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="126" t="str">
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="101" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="128"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="103"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -12090,43 +12048,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="126"/>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="128"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="103"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12163,1031 +12121,1187 @@
       <c r="A7" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="129" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="131"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="129" t="s">
+      <c r="E7" s="106"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="131"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="129" t="s">
+      <c r="H7" s="106"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="129" t="s">
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
-      <c r="U7" s="131"/>
-      <c r="V7" s="131"/>
-      <c r="W7" s="131"/>
-      <c r="X7" s="131"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="131"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="129" t="s">
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="AG7" s="131"/>
-      <c r="AH7" s="131"/>
-      <c r="AI7" s="130"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
+      <c r="AI7" s="105"/>
     </row>
     <row r="8" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="86">
         <v>1</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="150" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="115">
+      <c r="C8" s="151"/>
+      <c r="D8" s="152">
         <v>43336</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="118" t="s">
+      <c r="E8" s="153"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="120" t="s">
+      <c r="H8" s="156"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="123" t="s">
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="160" t="s">
         <v>144</v>
       </c>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
-      <c r="Z8" s="124"/>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="124"/>
-      <c r="AE8" s="125"/>
-      <c r="AF8" s="120" t="s">
+      <c r="R8" s="161"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="161"/>
+      <c r="U8" s="161"/>
+      <c r="V8" s="161"/>
+      <c r="W8" s="161"/>
+      <c r="X8" s="161"/>
+      <c r="Y8" s="161"/>
+      <c r="Z8" s="161"/>
+      <c r="AA8" s="161"/>
+      <c r="AB8" s="161"/>
+      <c r="AC8" s="161"/>
+      <c r="AD8" s="161"/>
+      <c r="AE8" s="162"/>
+      <c r="AF8" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="AG8" s="121"/>
-      <c r="AH8" s="121"/>
-      <c r="AI8" s="122"/>
+      <c r="AG8" s="158"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="159"/>
     </row>
     <row r="9" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="107"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="109"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="145"/>
+      <c r="AI9" s="146"/>
     </row>
     <row r="10" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="71"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="111"/>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="107"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="109"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="148"/>
+      <c r="U10" s="148"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="148"/>
+      <c r="X10" s="148"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="148"/>
+      <c r="AA10" s="148"/>
+      <c r="AB10" s="148"/>
+      <c r="AC10" s="148"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="144"/>
+      <c r="AG10" s="145"/>
+      <c r="AH10" s="145"/>
+      <c r="AI10" s="146"/>
     </row>
     <row r="11" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="109"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="146"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="148"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="148"/>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="148"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="149"/>
+      <c r="AF11" s="144"/>
+      <c r="AG11" s="145"/>
+      <c r="AH11" s="145"/>
+      <c r="AI11" s="146"/>
     </row>
     <row r="12" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="111"/>
-      <c r="X12" s="111"/>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="111"/>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="112"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="108"/>
-      <c r="AI12" s="109"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="148"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="148"/>
+      <c r="Z12" s="148"/>
+      <c r="AA12" s="148"/>
+      <c r="AB12" s="148"/>
+      <c r="AC12" s="148"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="144"/>
+      <c r="AG12" s="145"/>
+      <c r="AH12" s="145"/>
+      <c r="AI12" s="146"/>
     </row>
     <row r="13" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="112"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="109"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="148"/>
+      <c r="Z13" s="148"/>
+      <c r="AA13" s="148"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="148"/>
+      <c r="AD13" s="148"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="144"/>
+      <c r="AG13" s="145"/>
+      <c r="AH13" s="145"/>
+      <c r="AI13" s="146"/>
     </row>
     <row r="14" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="71"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="111"/>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="112"/>
-      <c r="AF14" s="107"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="109"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="148"/>
+      <c r="X14" s="148"/>
+      <c r="Y14" s="148"/>
+      <c r="Z14" s="148"/>
+      <c r="AA14" s="148"/>
+      <c r="AB14" s="148"/>
+      <c r="AC14" s="148"/>
+      <c r="AD14" s="148"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="144"/>
+      <c r="AG14" s="145"/>
+      <c r="AH14" s="145"/>
+      <c r="AI14" s="146"/>
     </row>
     <row r="15" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="71"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="111"/>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="111"/>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="112"/>
-      <c r="AF15" s="107"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="108"/>
-      <c r="AI15" s="109"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="146"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="148"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="148"/>
+      <c r="X15" s="148"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="148"/>
+      <c r="AB15" s="148"/>
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="144"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="146"/>
     </row>
     <row r="16" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="71"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="111"/>
-      <c r="X16" s="111"/>
-      <c r="Y16" s="111"/>
-      <c r="Z16" s="111"/>
-      <c r="AA16" s="111"/>
-      <c r="AB16" s="111"/>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="112"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="109"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="146"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="148"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="148"/>
+      <c r="Y16" s="148"/>
+      <c r="Z16" s="148"/>
+      <c r="AA16" s="148"/>
+      <c r="AB16" s="148"/>
+      <c r="AC16" s="148"/>
+      <c r="AD16" s="148"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="144"/>
+      <c r="AG16" s="145"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="146"/>
     </row>
     <row r="17" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="71"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111"/>
-      <c r="W17" s="111"/>
-      <c r="X17" s="111"/>
-      <c r="Y17" s="111"/>
-      <c r="Z17" s="111"/>
-      <c r="AA17" s="111"/>
-      <c r="AB17" s="111"/>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="112"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="109"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="148"/>
+      <c r="U17" s="148"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="148"/>
+      <c r="X17" s="148"/>
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="148"/>
+      <c r="AA17" s="148"/>
+      <c r="AB17" s="148"/>
+      <c r="AC17" s="148"/>
+      <c r="AD17" s="148"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="144"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="146"/>
     </row>
     <row r="18" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="71"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="111"/>
-      <c r="Z18" s="111"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="111"/>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="111"/>
-      <c r="AE18" s="112"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="108"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="109"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="148"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="148"/>
+      <c r="X18" s="148"/>
+      <c r="Y18" s="148"/>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="148"/>
+      <c r="AB18" s="148"/>
+      <c r="AC18" s="148"/>
+      <c r="AD18" s="148"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="144"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="146"/>
     </row>
     <row r="19" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="71"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
-      <c r="W19" s="111"/>
-      <c r="X19" s="111"/>
-      <c r="Y19" s="111"/>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="111"/>
-      <c r="AB19" s="111"/>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="111"/>
-      <c r="AE19" s="112"/>
-      <c r="AF19" s="107"/>
-      <c r="AG19" s="108"/>
-      <c r="AH19" s="108"/>
-      <c r="AI19" s="109"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="146"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="148"/>
+      <c r="X19" s="148"/>
+      <c r="Y19" s="148"/>
+      <c r="Z19" s="148"/>
+      <c r="AA19" s="148"/>
+      <c r="AB19" s="148"/>
+      <c r="AC19" s="148"/>
+      <c r="AD19" s="148"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="144"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="146"/>
     </row>
     <row r="20" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="71"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="111"/>
-      <c r="X20" s="111"/>
-      <c r="Y20" s="111"/>
-      <c r="Z20" s="111"/>
-      <c r="AA20" s="111"/>
-      <c r="AB20" s="111"/>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="111"/>
-      <c r="AE20" s="112"/>
-      <c r="AF20" s="107"/>
-      <c r="AG20" s="108"/>
-      <c r="AH20" s="108"/>
-      <c r="AI20" s="109"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="148"/>
+      <c r="Y20" s="148"/>
+      <c r="Z20" s="148"/>
+      <c r="AA20" s="148"/>
+      <c r="AB20" s="148"/>
+      <c r="AC20" s="148"/>
+      <c r="AD20" s="148"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="144"/>
+      <c r="AG20" s="145"/>
+      <c r="AH20" s="145"/>
+      <c r="AI20" s="146"/>
     </row>
     <row r="21" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="71"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="111"/>
-      <c r="W21" s="111"/>
-      <c r="X21" s="111"/>
-      <c r="Y21" s="111"/>
-      <c r="Z21" s="111"/>
-      <c r="AA21" s="111"/>
-      <c r="AB21" s="111"/>
-      <c r="AC21" s="111"/>
-      <c r="AD21" s="111"/>
-      <c r="AE21" s="112"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="108"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="109"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="148"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="148"/>
+      <c r="X21" s="148"/>
+      <c r="Y21" s="148"/>
+      <c r="Z21" s="148"/>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="148"/>
+      <c r="AC21" s="148"/>
+      <c r="AD21" s="148"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="144"/>
+      <c r="AG21" s="145"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="146"/>
     </row>
     <row r="22" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="71"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
-      <c r="W22" s="111"/>
-      <c r="X22" s="111"/>
-      <c r="Y22" s="111"/>
-      <c r="Z22" s="111"/>
-      <c r="AA22" s="111"/>
-      <c r="AB22" s="111"/>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="111"/>
-      <c r="AE22" s="112"/>
-      <c r="AF22" s="107"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="109"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="148"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="148"/>
+      <c r="Y22" s="148"/>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="148"/>
+      <c r="AB22" s="148"/>
+      <c r="AC22" s="148"/>
+      <c r="AD22" s="148"/>
+      <c r="AE22" s="149"/>
+      <c r="AF22" s="144"/>
+      <c r="AG22" s="145"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="146"/>
     </row>
     <row r="23" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="71"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="111"/>
-      <c r="W23" s="111"/>
-      <c r="X23" s="111"/>
-      <c r="Y23" s="111"/>
-      <c r="Z23" s="111"/>
-      <c r="AA23" s="111"/>
-      <c r="AB23" s="111"/>
-      <c r="AC23" s="111"/>
-      <c r="AD23" s="111"/>
-      <c r="AE23" s="112"/>
-      <c r="AF23" s="107"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="109"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="147"/>
+      <c r="R23" s="148"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="148"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="148"/>
+      <c r="X23" s="148"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="148"/>
+      <c r="AC23" s="148"/>
+      <c r="AD23" s="148"/>
+      <c r="AE23" s="149"/>
+      <c r="AF23" s="144"/>
+      <c r="AG23" s="145"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="146"/>
     </row>
     <row r="24" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="71"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="111"/>
-      <c r="W24" s="111"/>
-      <c r="X24" s="111"/>
-      <c r="Y24" s="111"/>
-      <c r="Z24" s="111"/>
-      <c r="AA24" s="111"/>
-      <c r="AB24" s="111"/>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="111"/>
-      <c r="AE24" s="112"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="108"/>
-      <c r="AH24" s="108"/>
-      <c r="AI24" s="109"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="148"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="148"/>
+      <c r="X24" s="148"/>
+      <c r="Y24" s="148"/>
+      <c r="Z24" s="148"/>
+      <c r="AA24" s="148"/>
+      <c r="AB24" s="148"/>
+      <c r="AC24" s="148"/>
+      <c r="AD24" s="148"/>
+      <c r="AE24" s="149"/>
+      <c r="AF24" s="144"/>
+      <c r="AG24" s="145"/>
+      <c r="AH24" s="145"/>
+      <c r="AI24" s="146"/>
     </row>
     <row r="25" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="71"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="111"/>
-      <c r="X25" s="111"/>
-      <c r="Y25" s="111"/>
-      <c r="Z25" s="111"/>
-      <c r="AA25" s="111"/>
-      <c r="AB25" s="111"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="111"/>
-      <c r="AE25" s="112"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="108"/>
-      <c r="AH25" s="108"/>
-      <c r="AI25" s="109"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="147"/>
+      <c r="R25" s="148"/>
+      <c r="S25" s="148"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="148"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="148"/>
+      <c r="X25" s="148"/>
+      <c r="Y25" s="148"/>
+      <c r="Z25" s="148"/>
+      <c r="AA25" s="148"/>
+      <c r="AB25" s="148"/>
+      <c r="AC25" s="148"/>
+      <c r="AD25" s="148"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="144"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="146"/>
     </row>
     <row r="26" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="71"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="111"/>
-      <c r="X26" s="111"/>
-      <c r="Y26" s="111"/>
-      <c r="Z26" s="111"/>
-      <c r="AA26" s="111"/>
-      <c r="AB26" s="111"/>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="111"/>
-      <c r="AE26" s="112"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="108"/>
-      <c r="AI26" s="109"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="148"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="148"/>
+      <c r="X26" s="148"/>
+      <c r="Y26" s="148"/>
+      <c r="Z26" s="148"/>
+      <c r="AA26" s="148"/>
+      <c r="AB26" s="148"/>
+      <c r="AC26" s="148"/>
+      <c r="AD26" s="148"/>
+      <c r="AE26" s="149"/>
+      <c r="AF26" s="144"/>
+      <c r="AG26" s="145"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="146"/>
     </row>
     <row r="27" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="71"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="111"/>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="111"/>
-      <c r="Z27" s="111"/>
-      <c r="AA27" s="111"/>
-      <c r="AB27" s="111"/>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="111"/>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="107"/>
-      <c r="AG27" s="108"/>
-      <c r="AH27" s="108"/>
-      <c r="AI27" s="109"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="148"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="148"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="148"/>
+      <c r="X27" s="148"/>
+      <c r="Y27" s="148"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="148"/>
+      <c r="AB27" s="148"/>
+      <c r="AC27" s="148"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="149"/>
+      <c r="AF27" s="144"/>
+      <c r="AG27" s="145"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="146"/>
     </row>
     <row r="28" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="71"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="111"/>
-      <c r="X28" s="111"/>
-      <c r="Y28" s="111"/>
-      <c r="Z28" s="111"/>
-      <c r="AA28" s="111"/>
-      <c r="AB28" s="111"/>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="111"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="107"/>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="108"/>
-      <c r="AI28" s="109"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="148"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="148"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="148"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="148"/>
+      <c r="AB28" s="148"/>
+      <c r="AC28" s="148"/>
+      <c r="AD28" s="148"/>
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="144"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="146"/>
     </row>
     <row r="29" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="71"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="111"/>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="111"/>
-      <c r="AE29" s="112"/>
-      <c r="AF29" s="107"/>
-      <c r="AG29" s="108"/>
-      <c r="AH29" s="108"/>
-      <c r="AI29" s="109"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="148"/>
+      <c r="S29" s="148"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="148"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="148"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="148"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="149"/>
+      <c r="AF29" s="144"/>
+      <c r="AG29" s="145"/>
+      <c r="AH29" s="145"/>
+      <c r="AI29" s="146"/>
     </row>
     <row r="30" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="71"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="111"/>
-      <c r="Y30" s="111"/>
-      <c r="Z30" s="111"/>
-      <c r="AA30" s="111"/>
-      <c r="AB30" s="111"/>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="111"/>
-      <c r="AE30" s="112"/>
-      <c r="AF30" s="107"/>
-      <c r="AG30" s="108"/>
-      <c r="AH30" s="108"/>
-      <c r="AI30" s="109"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="148"/>
+      <c r="S30" s="148"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="148"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="148"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="148"/>
+      <c r="AB30" s="148"/>
+      <c r="AC30" s="148"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="144"/>
+      <c r="AG30" s="145"/>
+      <c r="AH30" s="145"/>
+      <c r="AI30" s="146"/>
     </row>
     <row r="31" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="71"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="111"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="111"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="107"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="109"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="148"/>
+      <c r="S31" s="148"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="148"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="148"/>
+      <c r="X31" s="148"/>
+      <c r="Y31" s="148"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="148"/>
+      <c r="AB31" s="148"/>
+      <c r="AC31" s="148"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="144"/>
+      <c r="AG31" s="145"/>
+      <c r="AH31" s="145"/>
+      <c r="AI31" s="146"/>
     </row>
     <row r="32" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="71"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="111"/>
-      <c r="Z32" s="111"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="111"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="107"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="109"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="147"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="148"/>
+      <c r="Y32" s="148"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="149"/>
+      <c r="AF32" s="144"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="145"/>
+      <c r="AI32" s="146"/>
     </row>
     <row r="33" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="71"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="111"/>
-      <c r="Y33" s="111"/>
-      <c r="Z33" s="111"/>
-      <c r="AA33" s="111"/>
-      <c r="AB33" s="111"/>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="111"/>
-      <c r="AE33" s="112"/>
-      <c r="AF33" s="107"/>
-      <c r="AG33" s="108"/>
-      <c r="AH33" s="108"/>
-      <c r="AI33" s="109"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="148"/>
+      <c r="X33" s="148"/>
+      <c r="Y33" s="148"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="148"/>
+      <c r="AB33" s="148"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="149"/>
+      <c r="AF33" s="144"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -13211,162 +13325,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13523,53 +13481,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="162" t="str">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="141" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="150" t="str">
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="132" t="s">
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
       <c r="AG1" s="163">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
@@ -13581,48 +13539,48 @@
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="162" t="str">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="132" t="s">
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
       <c r="AG2" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -13634,46 +13592,46 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="162" t="str">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
       <c r="AG3" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -13840,7 +13798,7 @@
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -13993,7 +13951,7 @@
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="89" t="s">
-        <v>179</v>
+        <v>435</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12"/>
@@ -14033,7 +13991,7 @@
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="89" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="52"/>
@@ -14108,7 +14066,7 @@
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="90" t="s">
-        <v>150</v>
+        <v>436</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -14148,7 +14106,7 @@
       <c r="A16" s="12"/>
       <c r="B16" s="18"/>
       <c r="C16" s="91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -14223,7 +14181,7 @@
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="92" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="18"/>
@@ -15158,14 +15116,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -15175,6 +15125,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -15201,196 +15159,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="162" t="str">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="172" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="150" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="169" t="s">
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="189">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="168"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="162" t="str">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="169" t="s">
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="168"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="162" t="str">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="168"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B5" s="93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="C6" s="89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D8" s="93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D10" s="93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D11" s="93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D12" s="93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.15">
@@ -15404,19 +15362,19 @@
     <row r="17" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="D17" s="93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="D18" s="93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="D19" s="93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.15">
@@ -15425,7 +15383,7 @@
     <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="D21" s="93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.15">
@@ -15438,45 +15396,45 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.15">
       <c r="D26" s="93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="169" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="183" t="s">
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="185"/>
-      <c r="Q28" s="186" t="s">
-        <v>164</v>
-      </c>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="187"/>
-      <c r="U28" s="187"/>
-      <c r="V28" s="187"/>
-      <c r="W28" s="187"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="187"/>
-      <c r="Z28" s="187"/>
-      <c r="AA28" s="187"/>
-      <c r="AB28" s="187"/>
-      <c r="AC28" s="187"/>
-      <c r="AD28" s="188"/>
+      <c r="R28" s="173"/>
+      <c r="S28" s="173"/>
+      <c r="T28" s="173"/>
+      <c r="U28" s="173"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="173"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="173"/>
+      <c r="AD28" s="174"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="E29" s="94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -15490,7 +15448,7 @@
       <c r="O29" s="17"/>
       <c r="P29" s="66"/>
       <c r="Q29" s="94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
@@ -15508,7 +15466,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.15">
       <c r="E30" s="95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -15522,7 +15480,7 @@
       <c r="O30" s="15"/>
       <c r="P30" s="67"/>
       <c r="Q30" s="95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R30" s="16"/>
       <c r="S30" s="15"/>
@@ -15540,7 +15498,7 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="E31" s="95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -15554,7 +15512,7 @@
       <c r="O31" s="15"/>
       <c r="P31" s="67"/>
       <c r="Q31" s="95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
@@ -15572,7 +15530,7 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.15">
       <c r="E32" s="95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -15586,7 +15544,7 @@
       <c r="O32" s="15"/>
       <c r="P32" s="67"/>
       <c r="Q32" s="95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
@@ -15604,7 +15562,7 @@
     </row>
     <row r="33" spans="5:30" x14ac:dyDescent="0.15">
       <c r="E33" s="95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -15634,7 +15592,7 @@
     </row>
     <row r="34" spans="5:30" x14ac:dyDescent="0.15">
       <c r="E34" s="95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -15664,7 +15622,7 @@
     </row>
     <row r="35" spans="5:30" x14ac:dyDescent="0.15">
       <c r="E35" s="95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -15694,7 +15652,7 @@
     </row>
     <row r="36" spans="5:30" x14ac:dyDescent="0.15">
       <c r="E36" s="95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -15724,7 +15682,7 @@
     </row>
     <row r="37" spans="5:30" x14ac:dyDescent="0.15">
       <c r="E37" s="95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -15754,7 +15712,7 @@
     </row>
     <row r="38" spans="5:30" x14ac:dyDescent="0.15">
       <c r="E38" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F38" s="69"/>
       <c r="G38" s="69"/>
@@ -15784,6 +15742,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="Q28:AD28"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
@@ -15791,18 +15761,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="Q28:AD28"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -15833,163 +15791,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="162" t="str">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="172" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="150" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="169" t="s">
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="189">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="168"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="162" t="str">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="169" t="s">
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="168"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="162" t="str">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="168"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -16034,7 +15992,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="91" t="s">
-        <v>180</v>
+        <v>435</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -16111,7 +16069,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="91" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -16151,7 +16109,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="91" t="s">
-        <v>181</v>
+        <v>437</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -16228,7 +16186,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="91" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -16268,7 +16226,7 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="89" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -16343,7 +16301,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="91" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -16458,7 +16416,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="91" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -16498,7 +16456,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="12"/>
       <c r="F17" s="89" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -16538,7 +16496,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="91" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -16612,7 +16570,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="91" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -16654,33 +16612,33 @@
       <c r="F21" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="203" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="204"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="204"/>
-      <c r="N21" s="204"/>
-      <c r="O21" s="204"/>
-      <c r="P21" s="204"/>
-      <c r="Q21" s="204"/>
-      <c r="R21" s="204"/>
-      <c r="S21" s="203" t="s">
-        <v>192</v>
-      </c>
-      <c r="T21" s="204"/>
-      <c r="U21" s="204"/>
-      <c r="V21" s="204"/>
-      <c r="W21" s="204"/>
-      <c r="X21" s="204"/>
-      <c r="Y21" s="204"/>
-      <c r="Z21" s="204"/>
-      <c r="AA21" s="204"/>
-      <c r="AB21" s="204"/>
-      <c r="AC21" s="204"/>
+      <c r="G21" s="193" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="193" t="s">
+        <v>188</v>
+      </c>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="194"/>
+      <c r="Y21" s="194"/>
+      <c r="Z21" s="194"/>
+      <c r="AA21" s="194"/>
+      <c r="AB21" s="194"/>
+      <c r="AC21" s="194"/>
       <c r="AD21" s="50"/>
       <c r="AE21" s="50"/>
       <c r="AF21" s="50"/>
@@ -16697,33 +16655,33 @@
       <c r="F22" s="71">
         <v>1</v>
       </c>
-      <c r="G22" s="198" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="199"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="199"/>
-      <c r="L22" s="199"/>
-      <c r="M22" s="199"/>
-      <c r="N22" s="199"/>
-      <c r="O22" s="199"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="199"/>
-      <c r="R22" s="199"/>
-      <c r="S22" s="198" t="s">
-        <v>195</v>
-      </c>
-      <c r="T22" s="199"/>
-      <c r="U22" s="199"/>
-      <c r="V22" s="199"/>
-      <c r="W22" s="199"/>
-      <c r="X22" s="199"/>
-      <c r="Y22" s="199"/>
-      <c r="Z22" s="199"/>
-      <c r="AA22" s="199"/>
-      <c r="AB22" s="199"/>
-      <c r="AC22" s="199"/>
+      <c r="G22" s="195" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="196"/>
+      <c r="L22" s="196"/>
+      <c r="M22" s="196"/>
+      <c r="N22" s="196"/>
+      <c r="O22" s="196"/>
+      <c r="P22" s="196"/>
+      <c r="Q22" s="196"/>
+      <c r="R22" s="196"/>
+      <c r="S22" s="195" t="s">
+        <v>191</v>
+      </c>
+      <c r="T22" s="196"/>
+      <c r="U22" s="196"/>
+      <c r="V22" s="196"/>
+      <c r="W22" s="196"/>
+      <c r="X22" s="196"/>
+      <c r="Y22" s="196"/>
+      <c r="Z22" s="196"/>
+      <c r="AA22" s="196"/>
+      <c r="AB22" s="196"/>
+      <c r="AC22" s="196"/>
       <c r="AD22" s="50"/>
       <c r="AE22" s="50"/>
       <c r="AF22" s="50"/>
@@ -16740,33 +16698,33 @@
       <c r="F23" s="71">
         <v>2</v>
       </c>
-      <c r="G23" s="198" t="s">
-        <v>194</v>
-      </c>
-      <c r="H23" s="199"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="199"/>
-      <c r="L23" s="199"/>
-      <c r="M23" s="199"/>
-      <c r="N23" s="199"/>
-      <c r="O23" s="199"/>
-      <c r="P23" s="199"/>
-      <c r="Q23" s="199"/>
-      <c r="R23" s="199"/>
-      <c r="S23" s="198" t="s">
-        <v>196</v>
-      </c>
-      <c r="T23" s="199"/>
-      <c r="U23" s="199"/>
-      <c r="V23" s="199"/>
-      <c r="W23" s="199"/>
-      <c r="X23" s="199"/>
-      <c r="Y23" s="199"/>
-      <c r="Z23" s="199"/>
-      <c r="AA23" s="199"/>
-      <c r="AB23" s="199"/>
-      <c r="AC23" s="199"/>
+      <c r="G23" s="195" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="196"/>
+      <c r="L23" s="196"/>
+      <c r="M23" s="196"/>
+      <c r="N23" s="196"/>
+      <c r="O23" s="196"/>
+      <c r="P23" s="196"/>
+      <c r="Q23" s="196"/>
+      <c r="R23" s="196"/>
+      <c r="S23" s="195" t="s">
+        <v>192</v>
+      </c>
+      <c r="T23" s="196"/>
+      <c r="U23" s="196"/>
+      <c r="V23" s="196"/>
+      <c r="W23" s="196"/>
+      <c r="X23" s="196"/>
+      <c r="Y23" s="196"/>
+      <c r="Z23" s="196"/>
+      <c r="AA23" s="196"/>
+      <c r="AB23" s="196"/>
+      <c r="AC23" s="196"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="50"/>
@@ -16781,7 +16739,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="18"/>
       <c r="F24" s="92" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -16856,7 +16814,7 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="F26" s="91" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -16897,33 +16855,33 @@
       <c r="F27" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="G27" s="194" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="195"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="195"/>
-      <c r="L27" s="195"/>
-      <c r="M27" s="195"/>
-      <c r="N27" s="195"/>
-      <c r="O27" s="195"/>
-      <c r="P27" s="195"/>
-      <c r="Q27" s="195"/>
-      <c r="R27" s="195"/>
-      <c r="S27" s="194" t="s">
-        <v>200</v>
-      </c>
-      <c r="T27" s="195"/>
-      <c r="U27" s="195"/>
-      <c r="V27" s="195"/>
-      <c r="W27" s="195"/>
-      <c r="X27" s="195"/>
-      <c r="Y27" s="195"/>
-      <c r="Z27" s="195"/>
-      <c r="AA27" s="195"/>
-      <c r="AB27" s="195"/>
-      <c r="AC27" s="195"/>
+      <c r="G27" s="199" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="200"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="200"/>
+      <c r="N27" s="200"/>
+      <c r="O27" s="200"/>
+      <c r="P27" s="200"/>
+      <c r="Q27" s="200"/>
+      <c r="R27" s="200"/>
+      <c r="S27" s="199" t="s">
+        <v>196</v>
+      </c>
+      <c r="T27" s="200"/>
+      <c r="U27" s="200"/>
+      <c r="V27" s="200"/>
+      <c r="W27" s="200"/>
+      <c r="X27" s="200"/>
+      <c r="Y27" s="200"/>
+      <c r="Z27" s="200"/>
+      <c r="AA27" s="200"/>
+      <c r="AB27" s="200"/>
+      <c r="AC27" s="200"/>
       <c r="AD27" s="50"/>
       <c r="AE27" s="50"/>
       <c r="AF27" s="50"/>
@@ -16940,33 +16898,33 @@
       <c r="F28" s="85">
         <v>1</v>
       </c>
-      <c r="G28" s="200" t="s">
-        <v>201</v>
-      </c>
-      <c r="H28" s="201"/>
-      <c r="I28" s="201"/>
-      <c r="J28" s="201"/>
-      <c r="K28" s="201"/>
-      <c r="L28" s="201"/>
-      <c r="M28" s="201"/>
-      <c r="N28" s="201"/>
-      <c r="O28" s="201"/>
-      <c r="P28" s="201"/>
-      <c r="Q28" s="201"/>
-      <c r="R28" s="201"/>
-      <c r="S28" s="193" t="s">
+      <c r="G28" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="202"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="202"/>
+      <c r="L28" s="202"/>
+      <c r="M28" s="202"/>
+      <c r="N28" s="202"/>
+      <c r="O28" s="202"/>
+      <c r="P28" s="202"/>
+      <c r="Q28" s="202"/>
+      <c r="R28" s="202"/>
+      <c r="S28" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="T28" s="193"/>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="193"/>
-      <c r="X28" s="193"/>
-      <c r="Y28" s="193"/>
-      <c r="Z28" s="193"/>
-      <c r="AA28" s="193"/>
-      <c r="AB28" s="193"/>
-      <c r="AC28" s="193"/>
+      <c r="T28" s="198"/>
+      <c r="U28" s="198"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="198"/>
+      <c r="X28" s="198"/>
+      <c r="Y28" s="198"/>
+      <c r="Z28" s="198"/>
+      <c r="AA28" s="198"/>
+      <c r="AB28" s="198"/>
+      <c r="AC28" s="198"/>
       <c r="AD28" s="50"/>
       <c r="AE28" s="50"/>
       <c r="AF28" s="50"/>
@@ -16983,33 +16941,33 @@
       <c r="F29" s="85">
         <v>2</v>
       </c>
-      <c r="G29" s="192" t="s">
-        <v>202</v>
-      </c>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="193"/>
-      <c r="K29" s="193"/>
-      <c r="L29" s="193"/>
-      <c r="M29" s="193"/>
-      <c r="N29" s="193"/>
-      <c r="O29" s="193"/>
-      <c r="P29" s="193"/>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="193" t="s">
+      <c r="G29" s="197" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="198"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="198"/>
+      <c r="K29" s="198"/>
+      <c r="L29" s="198"/>
+      <c r="M29" s="198"/>
+      <c r="N29" s="198"/>
+      <c r="O29" s="198"/>
+      <c r="P29" s="198"/>
+      <c r="Q29" s="198"/>
+      <c r="R29" s="198"/>
+      <c r="S29" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="T29" s="193"/>
-      <c r="U29" s="193"/>
-      <c r="V29" s="193"/>
-      <c r="W29" s="193"/>
-      <c r="X29" s="193"/>
-      <c r="Y29" s="193"/>
-      <c r="Z29" s="193"/>
-      <c r="AA29" s="193"/>
-      <c r="AB29" s="193"/>
-      <c r="AC29" s="193"/>
+      <c r="T29" s="198"/>
+      <c r="U29" s="198"/>
+      <c r="V29" s="198"/>
+      <c r="W29" s="198"/>
+      <c r="X29" s="198"/>
+      <c r="Y29" s="198"/>
+      <c r="Z29" s="198"/>
+      <c r="AA29" s="198"/>
+      <c r="AB29" s="198"/>
+      <c r="AC29" s="198"/>
       <c r="AD29" s="50"/>
       <c r="AE29" s="50"/>
       <c r="AF29" s="50"/>
@@ -17026,33 +16984,33 @@
       <c r="F30" s="85">
         <v>3</v>
       </c>
-      <c r="G30" s="192" t="s">
-        <v>203</v>
-      </c>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="193"/>
-      <c r="L30" s="193"/>
-      <c r="M30" s="193"/>
-      <c r="N30" s="193"/>
-      <c r="O30" s="193"/>
-      <c r="P30" s="193"/>
-      <c r="Q30" s="193"/>
-      <c r="R30" s="193"/>
-      <c r="S30" s="193" t="s">
+      <c r="G30" s="197" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="198"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="198"/>
+      <c r="M30" s="198"/>
+      <c r="N30" s="198"/>
+      <c r="O30" s="198"/>
+      <c r="P30" s="198"/>
+      <c r="Q30" s="198"/>
+      <c r="R30" s="198"/>
+      <c r="S30" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="T30" s="193"/>
-      <c r="U30" s="193"/>
-      <c r="V30" s="193"/>
-      <c r="W30" s="193"/>
-      <c r="X30" s="193"/>
-      <c r="Y30" s="193"/>
-      <c r="Z30" s="193"/>
-      <c r="AA30" s="193"/>
-      <c r="AB30" s="193"/>
-      <c r="AC30" s="193"/>
+      <c r="T30" s="198"/>
+      <c r="U30" s="198"/>
+      <c r="V30" s="198"/>
+      <c r="W30" s="198"/>
+      <c r="X30" s="198"/>
+      <c r="Y30" s="198"/>
+      <c r="Z30" s="198"/>
+      <c r="AA30" s="198"/>
+      <c r="AB30" s="198"/>
+      <c r="AC30" s="198"/>
       <c r="AD30" s="50"/>
       <c r="AE30" s="50"/>
       <c r="AF30" s="50"/>
@@ -17069,33 +17027,33 @@
       <c r="F31" s="83">
         <v>4</v>
       </c>
-      <c r="G31" s="192" t="s">
-        <v>204</v>
-      </c>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="193"/>
-      <c r="M31" s="193"/>
-      <c r="N31" s="193"/>
-      <c r="O31" s="193"/>
-      <c r="P31" s="193"/>
-      <c r="Q31" s="193"/>
-      <c r="R31" s="193"/>
-      <c r="S31" s="193" t="s">
+      <c r="G31" s="197" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="198"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
+      <c r="M31" s="198"/>
+      <c r="N31" s="198"/>
+      <c r="O31" s="198"/>
+      <c r="P31" s="198"/>
+      <c r="Q31" s="198"/>
+      <c r="R31" s="198"/>
+      <c r="S31" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="T31" s="193"/>
-      <c r="U31" s="193"/>
-      <c r="V31" s="193"/>
-      <c r="W31" s="193"/>
-      <c r="X31" s="193"/>
-      <c r="Y31" s="193"/>
-      <c r="Z31" s="193"/>
-      <c r="AA31" s="193"/>
-      <c r="AB31" s="193"/>
-      <c r="AC31" s="193"/>
+      <c r="T31" s="198"/>
+      <c r="U31" s="198"/>
+      <c r="V31" s="198"/>
+      <c r="W31" s="198"/>
+      <c r="X31" s="198"/>
+      <c r="Y31" s="198"/>
+      <c r="Z31" s="198"/>
+      <c r="AA31" s="198"/>
+      <c r="AB31" s="198"/>
+      <c r="AC31" s="198"/>
       <c r="AD31" s="50"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="50"/>
@@ -17112,33 +17070,33 @@
       <c r="F32" s="83">
         <v>5</v>
       </c>
-      <c r="G32" s="192" t="s">
-        <v>205</v>
-      </c>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="193"/>
-      <c r="M32" s="193"/>
-      <c r="N32" s="193"/>
-      <c r="O32" s="193"/>
-      <c r="P32" s="193"/>
-      <c r="Q32" s="193"/>
-      <c r="R32" s="193"/>
-      <c r="S32" s="193" t="s">
+      <c r="G32" s="197" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="198"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="198"/>
+      <c r="N32" s="198"/>
+      <c r="O32" s="198"/>
+      <c r="P32" s="198"/>
+      <c r="Q32" s="198"/>
+      <c r="R32" s="198"/>
+      <c r="S32" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="T32" s="193"/>
-      <c r="U32" s="193"/>
-      <c r="V32" s="193"/>
-      <c r="W32" s="193"/>
-      <c r="X32" s="193"/>
-      <c r="Y32" s="193"/>
-      <c r="Z32" s="193"/>
-      <c r="AA32" s="193"/>
-      <c r="AB32" s="193"/>
-      <c r="AC32" s="193"/>
+      <c r="T32" s="198"/>
+      <c r="U32" s="198"/>
+      <c r="V32" s="198"/>
+      <c r="W32" s="198"/>
+      <c r="X32" s="198"/>
+      <c r="Y32" s="198"/>
+      <c r="Z32" s="198"/>
+      <c r="AA32" s="198"/>
+      <c r="AB32" s="198"/>
+      <c r="AC32" s="198"/>
       <c r="AD32" s="50"/>
       <c r="AE32" s="50"/>
       <c r="AF32" s="50"/>
@@ -17155,33 +17113,33 @@
       <c r="F33" s="83">
         <v>6</v>
       </c>
-      <c r="G33" s="192" t="s">
-        <v>206</v>
-      </c>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="193"/>
-      <c r="L33" s="193"/>
-      <c r="M33" s="193"/>
-      <c r="N33" s="193"/>
-      <c r="O33" s="193"/>
-      <c r="P33" s="193"/>
-      <c r="Q33" s="193"/>
-      <c r="R33" s="193"/>
-      <c r="S33" s="193" t="s">
+      <c r="G33" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" s="198"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
+      <c r="M33" s="198"/>
+      <c r="N33" s="198"/>
+      <c r="O33" s="198"/>
+      <c r="P33" s="198"/>
+      <c r="Q33" s="198"/>
+      <c r="R33" s="198"/>
+      <c r="S33" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="T33" s="193"/>
-      <c r="U33" s="193"/>
-      <c r="V33" s="193"/>
-      <c r="W33" s="193"/>
-      <c r="X33" s="193"/>
-      <c r="Y33" s="193"/>
-      <c r="Z33" s="193"/>
-      <c r="AA33" s="193"/>
-      <c r="AB33" s="193"/>
-      <c r="AC33" s="193"/>
+      <c r="T33" s="198"/>
+      <c r="U33" s="198"/>
+      <c r="V33" s="198"/>
+      <c r="W33" s="198"/>
+      <c r="X33" s="198"/>
+      <c r="Y33" s="198"/>
+      <c r="Z33" s="198"/>
+      <c r="AA33" s="198"/>
+      <c r="AB33" s="198"/>
+      <c r="AC33" s="198"/>
       <c r="AD33" s="50"/>
       <c r="AE33" s="50"/>
       <c r="AF33" s="50"/>
@@ -17268,7 +17226,7 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="91" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -17345,7 +17303,7 @@
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="91" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -17386,34 +17344,34 @@
       <c r="E39" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="194" t="s">
-        <v>208</v>
-      </c>
-      <c r="G39" s="195"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="195"/>
-      <c r="K39" s="195"/>
-      <c r="L39" s="195"/>
-      <c r="M39" s="195"/>
-      <c r="N39" s="195"/>
-      <c r="O39" s="195"/>
-      <c r="P39" s="195"/>
-      <c r="Q39" s="195"/>
-      <c r="R39" s="194" t="s">
-        <v>209</v>
-      </c>
-      <c r="S39" s="195"/>
-      <c r="T39" s="195"/>
-      <c r="U39" s="195"/>
-      <c r="V39" s="195"/>
-      <c r="W39" s="195"/>
-      <c r="X39" s="195"/>
-      <c r="Y39" s="195"/>
-      <c r="Z39" s="195"/>
-      <c r="AA39" s="195"/>
-      <c r="AB39" s="195"/>
-      <c r="AC39" s="195"/>
+      <c r="F39" s="199" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" s="200"/>
+      <c r="H39" s="200"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="200"/>
+      <c r="L39" s="200"/>
+      <c r="M39" s="200"/>
+      <c r="N39" s="200"/>
+      <c r="O39" s="200"/>
+      <c r="P39" s="200"/>
+      <c r="Q39" s="200"/>
+      <c r="R39" s="199" t="s">
+        <v>205</v>
+      </c>
+      <c r="S39" s="200"/>
+      <c r="T39" s="200"/>
+      <c r="U39" s="200"/>
+      <c r="V39" s="200"/>
+      <c r="W39" s="200"/>
+      <c r="X39" s="200"/>
+      <c r="Y39" s="200"/>
+      <c r="Z39" s="200"/>
+      <c r="AA39" s="200"/>
+      <c r="AB39" s="200"/>
+      <c r="AC39" s="200"/>
       <c r="AD39" s="50"/>
       <c r="AE39" s="50"/>
       <c r="AF39" s="50"/>
@@ -17429,34 +17387,34 @@
       <c r="E40" s="85">
         <v>1</v>
       </c>
-      <c r="F40" s="192" t="s">
-        <v>212</v>
-      </c>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="193"/>
-      <c r="L40" s="193"/>
-      <c r="M40" s="193"/>
-      <c r="N40" s="193"/>
-      <c r="O40" s="193"/>
-      <c r="P40" s="193"/>
-      <c r="Q40" s="193"/>
-      <c r="R40" s="196" t="s">
-        <v>220</v>
-      </c>
-      <c r="S40" s="197"/>
-      <c r="T40" s="197"/>
-      <c r="U40" s="197"/>
-      <c r="V40" s="197"/>
-      <c r="W40" s="197"/>
-      <c r="X40" s="197"/>
-      <c r="Y40" s="197"/>
-      <c r="Z40" s="197"/>
-      <c r="AA40" s="197"/>
-      <c r="AB40" s="197"/>
-      <c r="AC40" s="197"/>
+      <c r="F40" s="197" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="198"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="198"/>
+      <c r="M40" s="198"/>
+      <c r="N40" s="198"/>
+      <c r="O40" s="198"/>
+      <c r="P40" s="198"/>
+      <c r="Q40" s="198"/>
+      <c r="R40" s="203" t="s">
+        <v>216</v>
+      </c>
+      <c r="S40" s="204"/>
+      <c r="T40" s="204"/>
+      <c r="U40" s="204"/>
+      <c r="V40" s="204"/>
+      <c r="W40" s="204"/>
+      <c r="X40" s="204"/>
+      <c r="Y40" s="204"/>
+      <c r="Z40" s="204"/>
+      <c r="AA40" s="204"/>
+      <c r="AB40" s="204"/>
+      <c r="AC40" s="204"/>
       <c r="AD40" s="50"/>
       <c r="AE40" s="50"/>
       <c r="AF40" s="50"/>
@@ -17472,34 +17430,34 @@
       <c r="E41" s="85">
         <v>2</v>
       </c>
-      <c r="F41" s="192" t="s">
-        <v>213</v>
-      </c>
-      <c r="G41" s="193"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="193"/>
-      <c r="K41" s="193"/>
-      <c r="L41" s="193"/>
-      <c r="M41" s="193"/>
-      <c r="N41" s="193"/>
-      <c r="O41" s="193"/>
-      <c r="P41" s="193"/>
-      <c r="Q41" s="193"/>
-      <c r="R41" s="196" t="s">
-        <v>221</v>
-      </c>
-      <c r="S41" s="197"/>
-      <c r="T41" s="197"/>
-      <c r="U41" s="197"/>
-      <c r="V41" s="197"/>
-      <c r="W41" s="197"/>
-      <c r="X41" s="197"/>
-      <c r="Y41" s="197"/>
-      <c r="Z41" s="197"/>
-      <c r="AA41" s="197"/>
-      <c r="AB41" s="197"/>
-      <c r="AC41" s="197"/>
+      <c r="F41" s="197" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" s="198"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="198"/>
+      <c r="K41" s="198"/>
+      <c r="L41" s="198"/>
+      <c r="M41" s="198"/>
+      <c r="N41" s="198"/>
+      <c r="O41" s="198"/>
+      <c r="P41" s="198"/>
+      <c r="Q41" s="198"/>
+      <c r="R41" s="203" t="s">
+        <v>217</v>
+      </c>
+      <c r="S41" s="204"/>
+      <c r="T41" s="204"/>
+      <c r="U41" s="204"/>
+      <c r="V41" s="204"/>
+      <c r="W41" s="204"/>
+      <c r="X41" s="204"/>
+      <c r="Y41" s="204"/>
+      <c r="Z41" s="204"/>
+      <c r="AA41" s="204"/>
+      <c r="AB41" s="204"/>
+      <c r="AC41" s="204"/>
       <c r="AD41" s="50"/>
       <c r="AE41" s="50"/>
       <c r="AF41" s="50"/>
@@ -17515,34 +17473,34 @@
       <c r="E42" s="85">
         <v>3</v>
       </c>
-      <c r="F42" s="192" t="s">
-        <v>210</v>
-      </c>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
-      <c r="K42" s="193"/>
-      <c r="L42" s="193"/>
-      <c r="M42" s="193"/>
-      <c r="N42" s="193"/>
-      <c r="O42" s="193"/>
-      <c r="P42" s="193"/>
-      <c r="Q42" s="193"/>
-      <c r="R42" s="196" t="s">
-        <v>222</v>
-      </c>
-      <c r="S42" s="197"/>
-      <c r="T42" s="197"/>
-      <c r="U42" s="197"/>
-      <c r="V42" s="197"/>
-      <c r="W42" s="197"/>
-      <c r="X42" s="197"/>
-      <c r="Y42" s="197"/>
-      <c r="Z42" s="197"/>
-      <c r="AA42" s="197"/>
-      <c r="AB42" s="197"/>
-      <c r="AC42" s="197"/>
+      <c r="F42" s="197" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="198"/>
+      <c r="K42" s="198"/>
+      <c r="L42" s="198"/>
+      <c r="M42" s="198"/>
+      <c r="N42" s="198"/>
+      <c r="O42" s="198"/>
+      <c r="P42" s="198"/>
+      <c r="Q42" s="198"/>
+      <c r="R42" s="203" t="s">
+        <v>218</v>
+      </c>
+      <c r="S42" s="204"/>
+      <c r="T42" s="204"/>
+      <c r="U42" s="204"/>
+      <c r="V42" s="204"/>
+      <c r="W42" s="204"/>
+      <c r="X42" s="204"/>
+      <c r="Y42" s="204"/>
+      <c r="Z42" s="204"/>
+      <c r="AA42" s="204"/>
+      <c r="AB42" s="204"/>
+      <c r="AC42" s="204"/>
       <c r="AD42" s="50"/>
       <c r="AE42" s="50"/>
       <c r="AF42" s="50"/>
@@ -17558,34 +17516,34 @@
       <c r="E43" s="83">
         <v>4</v>
       </c>
-      <c r="F43" s="192" t="s">
-        <v>211</v>
-      </c>
-      <c r="G43" s="193"/>
-      <c r="H43" s="193"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="193"/>
-      <c r="K43" s="193"/>
-      <c r="L43" s="193"/>
-      <c r="M43" s="193"/>
-      <c r="N43" s="193"/>
-      <c r="O43" s="193"/>
-      <c r="P43" s="193"/>
-      <c r="Q43" s="193"/>
-      <c r="R43" s="196" t="s">
-        <v>223</v>
-      </c>
-      <c r="S43" s="197"/>
-      <c r="T43" s="197"/>
-      <c r="U43" s="197"/>
-      <c r="V43" s="197"/>
-      <c r="W43" s="197"/>
-      <c r="X43" s="197"/>
-      <c r="Y43" s="197"/>
-      <c r="Z43" s="197"/>
-      <c r="AA43" s="197"/>
-      <c r="AB43" s="197"/>
-      <c r="AC43" s="197"/>
+      <c r="F43" s="197" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="198"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="198"/>
+      <c r="K43" s="198"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="198"/>
+      <c r="P43" s="198"/>
+      <c r="Q43" s="198"/>
+      <c r="R43" s="203" t="s">
+        <v>219</v>
+      </c>
+      <c r="S43" s="204"/>
+      <c r="T43" s="204"/>
+      <c r="U43" s="204"/>
+      <c r="V43" s="204"/>
+      <c r="W43" s="204"/>
+      <c r="X43" s="204"/>
+      <c r="Y43" s="204"/>
+      <c r="Z43" s="204"/>
+      <c r="AA43" s="204"/>
+      <c r="AB43" s="204"/>
+      <c r="AC43" s="204"/>
       <c r="AD43" s="50"/>
       <c r="AE43" s="50"/>
       <c r="AF43" s="50"/>
@@ -17601,34 +17559,34 @@
       <c r="E44" s="83">
         <v>5</v>
       </c>
-      <c r="F44" s="192" t="s">
-        <v>242</v>
-      </c>
-      <c r="G44" s="193"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="193"/>
-      <c r="K44" s="193"/>
-      <c r="L44" s="193"/>
-      <c r="M44" s="193"/>
-      <c r="N44" s="193"/>
-      <c r="O44" s="193"/>
-      <c r="P44" s="193"/>
-      <c r="Q44" s="193"/>
-      <c r="R44" s="196" t="s">
-        <v>216</v>
-      </c>
-      <c r="S44" s="197"/>
-      <c r="T44" s="197"/>
-      <c r="U44" s="197"/>
-      <c r="V44" s="197"/>
-      <c r="W44" s="197"/>
-      <c r="X44" s="197"/>
-      <c r="Y44" s="197"/>
-      <c r="Z44" s="197"/>
-      <c r="AA44" s="197"/>
-      <c r="AB44" s="197"/>
-      <c r="AC44" s="197"/>
+      <c r="F44" s="197" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44" s="198"/>
+      <c r="H44" s="198"/>
+      <c r="I44" s="198"/>
+      <c r="J44" s="198"/>
+      <c r="K44" s="198"/>
+      <c r="L44" s="198"/>
+      <c r="M44" s="198"/>
+      <c r="N44" s="198"/>
+      <c r="O44" s="198"/>
+      <c r="P44" s="198"/>
+      <c r="Q44" s="198"/>
+      <c r="R44" s="203" t="s">
+        <v>212</v>
+      </c>
+      <c r="S44" s="204"/>
+      <c r="T44" s="204"/>
+      <c r="U44" s="204"/>
+      <c r="V44" s="204"/>
+      <c r="W44" s="204"/>
+      <c r="X44" s="204"/>
+      <c r="Y44" s="204"/>
+      <c r="Z44" s="204"/>
+      <c r="AA44" s="204"/>
+      <c r="AB44" s="204"/>
+      <c r="AC44" s="204"/>
       <c r="AD44" s="50"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
@@ -17644,34 +17602,34 @@
       <c r="E45" s="83">
         <v>6</v>
       </c>
-      <c r="F45" s="192" t="s">
-        <v>215</v>
-      </c>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="193"/>
-      <c r="K45" s="193"/>
-      <c r="L45" s="193"/>
-      <c r="M45" s="193"/>
-      <c r="N45" s="193"/>
-      <c r="O45" s="193"/>
-      <c r="P45" s="193"/>
-      <c r="Q45" s="193"/>
-      <c r="R45" s="196" t="s">
-        <v>217</v>
-      </c>
-      <c r="S45" s="197"/>
-      <c r="T45" s="197"/>
-      <c r="U45" s="197"/>
-      <c r="V45" s="197"/>
-      <c r="W45" s="197"/>
-      <c r="X45" s="197"/>
-      <c r="Y45" s="197"/>
-      <c r="Z45" s="197"/>
-      <c r="AA45" s="197"/>
-      <c r="AB45" s="197"/>
-      <c r="AC45" s="197"/>
+      <c r="F45" s="197" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" s="198"/>
+      <c r="H45" s="198"/>
+      <c r="I45" s="198"/>
+      <c r="J45" s="198"/>
+      <c r="K45" s="198"/>
+      <c r="L45" s="198"/>
+      <c r="M45" s="198"/>
+      <c r="N45" s="198"/>
+      <c r="O45" s="198"/>
+      <c r="P45" s="198"/>
+      <c r="Q45" s="198"/>
+      <c r="R45" s="203" t="s">
+        <v>213</v>
+      </c>
+      <c r="S45" s="204"/>
+      <c r="T45" s="204"/>
+      <c r="U45" s="204"/>
+      <c r="V45" s="204"/>
+      <c r="W45" s="204"/>
+      <c r="X45" s="204"/>
+      <c r="Y45" s="204"/>
+      <c r="Z45" s="204"/>
+      <c r="AA45" s="204"/>
+      <c r="AB45" s="204"/>
+      <c r="AC45" s="204"/>
       <c r="AD45" s="50"/>
       <c r="AE45" s="50"/>
       <c r="AF45" s="50"/>
@@ -17685,7 +17643,7 @@
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
       <c r="E46" s="89" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F46" s="52"/>
       <c r="G46" s="51"/>
@@ -17724,7 +17682,7 @@
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
       <c r="E47" s="91" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="50"/>
@@ -17763,7 +17721,7 @@
       <c r="C48" s="50"/>
       <c r="D48" s="50"/>
       <c r="E48" s="91" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="50"/>
@@ -18245,7 +18203,7 @@
       <c r="B61" s="50"/>
       <c r="C61" s="50"/>
       <c r="D61" s="97" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
@@ -18322,7 +18280,7 @@
       <c r="C63" s="50"/>
       <c r="D63" s="50"/>
       <c r="E63" s="91" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="50"/>
@@ -18361,7 +18319,7 @@
       <c r="C64" s="50"/>
       <c r="D64" s="50"/>
       <c r="E64" s="91" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="50"/>
@@ -18400,7 +18358,7 @@
       <c r="C65" s="50"/>
       <c r="D65" s="50"/>
       <c r="E65" s="91" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="50"/>
@@ -18512,7 +18470,7 @@
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="91" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -18589,7 +18547,7 @@
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="91" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
@@ -18629,7 +18587,7 @@
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="91" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -18668,7 +18626,7 @@
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="91" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -18707,7 +18665,7 @@
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="91" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
@@ -18746,7 +18704,7 @@
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="91" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -18785,7 +18743,7 @@
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="91" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -18824,7 +18782,7 @@
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="91" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
@@ -18863,7 +18821,7 @@
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="91" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -18902,7 +18860,7 @@
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="91" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
@@ -18941,7 +18899,7 @@
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="91" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -18980,7 +18938,7 @@
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="91" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -19019,7 +18977,7 @@
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="91" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -19058,7 +19016,7 @@
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="91" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -19096,37 +19054,37 @@
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
-      <c r="F83" s="202" t="s">
-        <v>243</v>
-      </c>
-      <c r="G83" s="202"/>
-      <c r="H83" s="202"/>
-      <c r="I83" s="202"/>
-      <c r="J83" s="202"/>
-      <c r="K83" s="202"/>
-      <c r="L83" s="202"/>
-      <c r="M83" s="202"/>
-      <c r="N83" s="202"/>
-      <c r="O83" s="202"/>
-      <c r="P83" s="202"/>
-      <c r="Q83" s="202"/>
-      <c r="R83" s="202"/>
-      <c r="S83" s="202"/>
-      <c r="T83" s="202"/>
-      <c r="U83" s="202"/>
-      <c r="V83" s="202"/>
-      <c r="W83" s="202"/>
-      <c r="X83" s="202"/>
-      <c r="Y83" s="202"/>
-      <c r="Z83" s="202"/>
-      <c r="AA83" s="202"/>
-      <c r="AB83" s="202"/>
-      <c r="AC83" s="202"/>
-      <c r="AD83" s="202"/>
-      <c r="AE83" s="202"/>
-      <c r="AF83" s="202"/>
-      <c r="AG83" s="202"/>
-      <c r="AH83" s="202"/>
+      <c r="F83" s="192" t="s">
+        <v>239</v>
+      </c>
+      <c r="G83" s="192"/>
+      <c r="H83" s="192"/>
+      <c r="I83" s="192"/>
+      <c r="J83" s="192"/>
+      <c r="K83" s="192"/>
+      <c r="L83" s="192"/>
+      <c r="M83" s="192"/>
+      <c r="N83" s="192"/>
+      <c r="O83" s="192"/>
+      <c r="P83" s="192"/>
+      <c r="Q83" s="192"/>
+      <c r="R83" s="192"/>
+      <c r="S83" s="192"/>
+      <c r="T83" s="192"/>
+      <c r="U83" s="192"/>
+      <c r="V83" s="192"/>
+      <c r="W83" s="192"/>
+      <c r="X83" s="192"/>
+      <c r="Y83" s="192"/>
+      <c r="Z83" s="192"/>
+      <c r="AA83" s="192"/>
+      <c r="AB83" s="192"/>
+      <c r="AC83" s="192"/>
+      <c r="AD83" s="192"/>
+      <c r="AE83" s="192"/>
+      <c r="AF83" s="192"/>
+      <c r="AG83" s="192"/>
+      <c r="AH83" s="192"/>
       <c r="AI83" s="12"/>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.15">
@@ -19136,7 +19094,7 @@
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="91" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -19175,7 +19133,7 @@
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="91" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -19214,7 +19172,7 @@
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="91" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -19253,7 +19211,7 @@
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="91" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -19291,37 +19249,37 @@
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
-      <c r="F88" s="202" t="s">
-        <v>248</v>
-      </c>
-      <c r="G88" s="202"/>
-      <c r="H88" s="202"/>
-      <c r="I88" s="202"/>
-      <c r="J88" s="202"/>
-      <c r="K88" s="202"/>
-      <c r="L88" s="202"/>
-      <c r="M88" s="202"/>
-      <c r="N88" s="202"/>
-      <c r="O88" s="202"/>
-      <c r="P88" s="202"/>
-      <c r="Q88" s="202"/>
-      <c r="R88" s="202"/>
-      <c r="S88" s="202"/>
-      <c r="T88" s="202"/>
-      <c r="U88" s="202"/>
-      <c r="V88" s="202"/>
-      <c r="W88" s="202"/>
-      <c r="X88" s="202"/>
-      <c r="Y88" s="202"/>
-      <c r="Z88" s="202"/>
-      <c r="AA88" s="202"/>
-      <c r="AB88" s="202"/>
-      <c r="AC88" s="202"/>
-      <c r="AD88" s="202"/>
-      <c r="AE88" s="202"/>
-      <c r="AF88" s="202"/>
-      <c r="AG88" s="202"/>
-      <c r="AH88" s="202"/>
+      <c r="F88" s="192" t="s">
+        <v>244</v>
+      </c>
+      <c r="G88" s="192"/>
+      <c r="H88" s="192"/>
+      <c r="I88" s="192"/>
+      <c r="J88" s="192"/>
+      <c r="K88" s="192"/>
+      <c r="L88" s="192"/>
+      <c r="M88" s="192"/>
+      <c r="N88" s="192"/>
+      <c r="O88" s="192"/>
+      <c r="P88" s="192"/>
+      <c r="Q88" s="192"/>
+      <c r="R88" s="192"/>
+      <c r="S88" s="192"/>
+      <c r="T88" s="192"/>
+      <c r="U88" s="192"/>
+      <c r="V88" s="192"/>
+      <c r="W88" s="192"/>
+      <c r="X88" s="192"/>
+      <c r="Y88" s="192"/>
+      <c r="Z88" s="192"/>
+      <c r="AA88" s="192"/>
+      <c r="AB88" s="192"/>
+      <c r="AC88" s="192"/>
+      <c r="AD88" s="192"/>
+      <c r="AE88" s="192"/>
+      <c r="AF88" s="192"/>
+      <c r="AG88" s="192"/>
+      <c r="AH88" s="192"/>
       <c r="AI88" s="12"/>
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -19330,37 +19288,37 @@
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
-      <c r="F89" s="202" t="s">
-        <v>249</v>
-      </c>
-      <c r="G89" s="202"/>
-      <c r="H89" s="202"/>
-      <c r="I89" s="202"/>
-      <c r="J89" s="202"/>
-      <c r="K89" s="202"/>
-      <c r="L89" s="202"/>
-      <c r="M89" s="202"/>
-      <c r="N89" s="202"/>
-      <c r="O89" s="202"/>
-      <c r="P89" s="202"/>
-      <c r="Q89" s="202"/>
-      <c r="R89" s="202"/>
-      <c r="S89" s="202"/>
-      <c r="T89" s="202"/>
-      <c r="U89" s="202"/>
-      <c r="V89" s="202"/>
-      <c r="W89" s="202"/>
-      <c r="X89" s="202"/>
-      <c r="Y89" s="202"/>
-      <c r="Z89" s="202"/>
-      <c r="AA89" s="202"/>
-      <c r="AB89" s="202"/>
-      <c r="AC89" s="202"/>
-      <c r="AD89" s="202"/>
-      <c r="AE89" s="202"/>
-      <c r="AF89" s="202"/>
-      <c r="AG89" s="202"/>
-      <c r="AH89" s="202"/>
+      <c r="F89" s="192" t="s">
+        <v>245</v>
+      </c>
+      <c r="G89" s="192"/>
+      <c r="H89" s="192"/>
+      <c r="I89" s="192"/>
+      <c r="J89" s="192"/>
+      <c r="K89" s="192"/>
+      <c r="L89" s="192"/>
+      <c r="M89" s="192"/>
+      <c r="N89" s="192"/>
+      <c r="O89" s="192"/>
+      <c r="P89" s="192"/>
+      <c r="Q89" s="192"/>
+      <c r="R89" s="192"/>
+      <c r="S89" s="192"/>
+      <c r="T89" s="192"/>
+      <c r="U89" s="192"/>
+      <c r="V89" s="192"/>
+      <c r="W89" s="192"/>
+      <c r="X89" s="192"/>
+      <c r="Y89" s="192"/>
+      <c r="Z89" s="192"/>
+      <c r="AA89" s="192"/>
+      <c r="AB89" s="192"/>
+      <c r="AC89" s="192"/>
+      <c r="AD89" s="192"/>
+      <c r="AE89" s="192"/>
+      <c r="AF89" s="192"/>
+      <c r="AG89" s="192"/>
+      <c r="AH89" s="192"/>
       <c r="AI89" s="12"/>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.15">
@@ -19370,7 +19328,7 @@
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="91" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -19409,7 +19367,7 @@
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="91" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -19448,7 +19406,7 @@
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="91" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -19487,7 +19445,7 @@
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="91" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -19526,7 +19484,7 @@
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="91" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -19565,7 +19523,7 @@
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="91" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -19605,7 +19563,7 @@
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="91" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
@@ -19644,7 +19602,7 @@
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="91" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
@@ -20088,7 +20046,7 @@
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="91" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
@@ -20128,7 +20086,7 @@
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="91" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
@@ -20167,7 +20125,7 @@
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="91" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
@@ -20206,7 +20164,7 @@
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="91" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
@@ -20615,7 +20573,7 @@
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="91" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
@@ -20654,7 +20612,7 @@
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
       <c r="F124" s="91" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
@@ -20693,7 +20651,7 @@
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="91" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
@@ -20732,7 +20690,7 @@
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="91" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
@@ -20771,7 +20729,7 @@
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="91" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
@@ -20810,7 +20768,7 @@
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
       <c r="F128" s="91" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
@@ -20849,7 +20807,7 @@
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="91" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
@@ -20888,7 +20846,7 @@
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
@@ -20927,7 +20885,7 @@
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="91" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
@@ -20966,7 +20924,7 @@
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="91" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
@@ -21005,7 +20963,7 @@
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="91" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
@@ -21045,7 +21003,7 @@
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="91" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
@@ -21083,7 +21041,7 @@
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="91" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
@@ -21122,7 +21080,7 @@
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="91" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
@@ -21161,7 +21119,7 @@
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="91" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
@@ -21200,7 +21158,7 @@
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="91" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
@@ -21239,7 +21197,7 @@
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="91" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -21278,7 +21236,7 @@
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="91" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
@@ -21426,7 +21384,7 @@
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="91" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
@@ -21503,7 +21461,7 @@
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="91" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
@@ -21543,7 +21501,7 @@
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
       <c r="F147" s="91" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
@@ -21582,10 +21540,10 @@
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
       <c r="F148" s="91" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G148" s="98" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
@@ -21623,10 +21581,10 @@
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="91" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G149" s="98" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
@@ -21664,10 +21622,10 @@
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
       <c r="F150" s="91" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G150" s="98" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
@@ -21705,10 +21663,10 @@
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
       <c r="F151" s="91" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G151" s="98" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
@@ -21746,10 +21704,10 @@
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
       <c r="F152" s="91" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G152" s="98" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
@@ -21787,7 +21745,7 @@
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="91" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G153" s="12"/>
       <c r="H153" s="12"/>
@@ -21826,7 +21784,7 @@
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
       <c r="F154" s="91" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
@@ -21865,7 +21823,7 @@
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
       <c r="F155" s="91" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
@@ -21940,7 +21898,7 @@
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
       <c r="E157" s="91" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
@@ -21980,7 +21938,7 @@
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
       <c r="F158" s="91" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
@@ -22019,10 +21977,10 @@
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
       <c r="F159" s="91" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G159" s="98" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
@@ -22060,10 +22018,10 @@
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
       <c r="F160" s="91" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G160" s="98" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
@@ -22101,10 +22059,10 @@
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
       <c r="F161" s="91" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G161" s="98" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
@@ -22142,10 +22100,10 @@
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
       <c r="F162" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="G162" s="98" t="s">
         <v>288</v>
-      </c>
-      <c r="G162" s="98" t="s">
-        <v>292</v>
       </c>
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
@@ -22183,10 +22141,10 @@
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
       <c r="F163" s="91" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G163" s="98" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
@@ -22224,10 +22182,10 @@
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
       <c r="F164" s="91" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G164" s="98" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
@@ -22265,10 +22223,10 @@
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
       <c r="F165" s="91" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G165" s="98" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
@@ -22972,7 +22930,7 @@
       <c r="D184" s="12"/>
       <c r="E184" s="12"/>
       <c r="F184" s="91" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -23084,7 +23042,7 @@
       <c r="C187" s="12"/>
       <c r="D187" s="12"/>
       <c r="E187" s="91" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
@@ -23124,7 +23082,7 @@
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
       <c r="F188" s="91" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -23163,7 +23121,7 @@
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="91" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
@@ -23609,7 +23567,7 @@
       <c r="D201" s="12"/>
       <c r="E201" s="12"/>
       <c r="F201" s="91" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
@@ -23648,7 +23606,7 @@
       <c r="D202" s="12"/>
       <c r="E202" s="12"/>
       <c r="F202" s="91" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
@@ -23723,7 +23681,7 @@
       <c r="C204" s="12"/>
       <c r="D204" s="12"/>
       <c r="E204" s="91" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
@@ -23763,7 +23721,7 @@
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
       <c r="F205" s="91" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G205" s="12"/>
       <c r="H205" s="12"/>
@@ -23802,7 +23760,7 @@
       <c r="D206" s="12"/>
       <c r="E206" s="12"/>
       <c r="F206" s="91" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
@@ -23841,7 +23799,7 @@
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="91" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
@@ -24323,7 +24281,7 @@
       <c r="C220" s="12"/>
       <c r="D220" s="12"/>
       <c r="E220" s="91" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F220" s="12"/>
       <c r="G220" s="12"/>
@@ -24363,7 +24321,7 @@
       <c r="D221" s="12"/>
       <c r="E221" s="12"/>
       <c r="F221" s="91" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G221" s="12"/>
       <c r="H221" s="12"/>
@@ -24402,7 +24360,7 @@
       <c r="D222" s="12"/>
       <c r="E222" s="12"/>
       <c r="F222" s="91" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G222" s="12"/>
       <c r="H222" s="12"/>
@@ -24440,37 +24398,37 @@
       <c r="C223" s="12"/>
       <c r="D223" s="12"/>
       <c r="E223" s="12"/>
-      <c r="F223" s="202" t="s">
-        <v>315</v>
-      </c>
-      <c r="G223" s="202"/>
-      <c r="H223" s="202"/>
-      <c r="I223" s="202"/>
-      <c r="J223" s="202"/>
-      <c r="K223" s="202"/>
-      <c r="L223" s="202"/>
-      <c r="M223" s="202"/>
-      <c r="N223" s="202"/>
-      <c r="O223" s="202"/>
-      <c r="P223" s="202"/>
-      <c r="Q223" s="202"/>
-      <c r="R223" s="202"/>
-      <c r="S223" s="202"/>
-      <c r="T223" s="202"/>
-      <c r="U223" s="202"/>
-      <c r="V223" s="202"/>
-      <c r="W223" s="202"/>
-      <c r="X223" s="202"/>
-      <c r="Y223" s="202"/>
-      <c r="Z223" s="202"/>
-      <c r="AA223" s="202"/>
-      <c r="AB223" s="202"/>
-      <c r="AC223" s="202"/>
-      <c r="AD223" s="202"/>
-      <c r="AE223" s="202"/>
-      <c r="AF223" s="202"/>
-      <c r="AG223" s="202"/>
-      <c r="AH223" s="202"/>
+      <c r="F223" s="192" t="s">
+        <v>311</v>
+      </c>
+      <c r="G223" s="192"/>
+      <c r="H223" s="192"/>
+      <c r="I223" s="192"/>
+      <c r="J223" s="192"/>
+      <c r="K223" s="192"/>
+      <c r="L223" s="192"/>
+      <c r="M223" s="192"/>
+      <c r="N223" s="192"/>
+      <c r="O223" s="192"/>
+      <c r="P223" s="192"/>
+      <c r="Q223" s="192"/>
+      <c r="R223" s="192"/>
+      <c r="S223" s="192"/>
+      <c r="T223" s="192"/>
+      <c r="U223" s="192"/>
+      <c r="V223" s="192"/>
+      <c r="W223" s="192"/>
+      <c r="X223" s="192"/>
+      <c r="Y223" s="192"/>
+      <c r="Z223" s="192"/>
+      <c r="AA223" s="192"/>
+      <c r="AB223" s="192"/>
+      <c r="AC223" s="192"/>
+      <c r="AD223" s="192"/>
+      <c r="AE223" s="192"/>
+      <c r="AF223" s="192"/>
+      <c r="AG223" s="192"/>
+      <c r="AH223" s="192"/>
       <c r="AI223" s="12"/>
     </row>
     <row r="224" spans="1:35" x14ac:dyDescent="0.15">
@@ -25104,6 +25062,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F44:Q44"/>
+    <mergeCell ref="F45:Q45"/>
+    <mergeCell ref="R39:AC39"/>
+    <mergeCell ref="R40:AC40"/>
+    <mergeCell ref="R41:AC41"/>
+    <mergeCell ref="R42:AC42"/>
+    <mergeCell ref="R43:AC43"/>
+    <mergeCell ref="R44:AC44"/>
+    <mergeCell ref="R45:AC45"/>
+    <mergeCell ref="F39:Q39"/>
+    <mergeCell ref="F40:Q40"/>
+    <mergeCell ref="F41:Q41"/>
+    <mergeCell ref="F42:Q42"/>
+    <mergeCell ref="F43:Q43"/>
+    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="G32:R32"/>
+    <mergeCell ref="G33:R33"/>
+    <mergeCell ref="S27:AC27"/>
+    <mergeCell ref="S28:AC28"/>
+    <mergeCell ref="S29:AC29"/>
+    <mergeCell ref="S30:AC30"/>
+    <mergeCell ref="S31:AC31"/>
+    <mergeCell ref="S32:AC32"/>
+    <mergeCell ref="S33:AC33"/>
+    <mergeCell ref="G27:R27"/>
+    <mergeCell ref="G28:R28"/>
+    <mergeCell ref="G29:R29"/>
+    <mergeCell ref="G30:R30"/>
+    <mergeCell ref="G31:R31"/>
     <mergeCell ref="F83:AH83"/>
     <mergeCell ref="F88:AH88"/>
     <mergeCell ref="F89:AH89"/>
@@ -25120,45 +25117,6 @@
     <mergeCell ref="G23:R23"/>
     <mergeCell ref="S21:AC21"/>
     <mergeCell ref="S22:AC22"/>
-    <mergeCell ref="S23:AC23"/>
-    <mergeCell ref="G32:R32"/>
-    <mergeCell ref="G33:R33"/>
-    <mergeCell ref="S27:AC27"/>
-    <mergeCell ref="S28:AC28"/>
-    <mergeCell ref="S29:AC29"/>
-    <mergeCell ref="S30:AC30"/>
-    <mergeCell ref="S31:AC31"/>
-    <mergeCell ref="S32:AC32"/>
-    <mergeCell ref="S33:AC33"/>
-    <mergeCell ref="G27:R27"/>
-    <mergeCell ref="G28:R28"/>
-    <mergeCell ref="G29:R29"/>
-    <mergeCell ref="G30:R30"/>
-    <mergeCell ref="G31:R31"/>
-    <mergeCell ref="F44:Q44"/>
-    <mergeCell ref="F45:Q45"/>
-    <mergeCell ref="R39:AC39"/>
-    <mergeCell ref="R40:AC40"/>
-    <mergeCell ref="R41:AC41"/>
-    <mergeCell ref="R42:AC42"/>
-    <mergeCell ref="R43:AC43"/>
-    <mergeCell ref="R44:AC44"/>
-    <mergeCell ref="R45:AC45"/>
-    <mergeCell ref="F39:Q39"/>
-    <mergeCell ref="F40:Q40"/>
-    <mergeCell ref="F41:Q41"/>
-    <mergeCell ref="F42:Q42"/>
-    <mergeCell ref="F43:Q43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -25196,163 +25154,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="162" t="str">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="172" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="150" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="169" t="s">
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="189">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="168"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="162" t="str">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="169" t="s">
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="168"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="162" t="str">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="168"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -25397,7 +25355,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="91" t="s">
-        <v>316</v>
+        <v>436</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -25474,7 +25432,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="91" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -25550,7 +25508,7 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="91" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -25590,7 +25548,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="91" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -25667,7 +25625,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="91" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -26445,7 +26403,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="91" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -26522,7 +26480,7 @@
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="91" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -26561,7 +26519,7 @@
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="91" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -26600,7 +26558,7 @@
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="91" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -26639,7 +26597,7 @@
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="91" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -26974,7 +26932,7 @@
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="91" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -27050,39 +27008,39 @@
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="205" t="s">
-        <v>324</v>
-      </c>
-      <c r="G49" s="206"/>
-      <c r="H49" s="206"/>
-      <c r="I49" s="206"/>
-      <c r="J49" s="206"/>
-      <c r="K49" s="206"/>
-      <c r="L49" s="206"/>
-      <c r="M49" s="206"/>
-      <c r="N49" s="206"/>
-      <c r="O49" s="206"/>
-      <c r="P49" s="206"/>
-      <c r="Q49" s="206"/>
-      <c r="R49" s="206"/>
-      <c r="S49" s="206"/>
-      <c r="T49" s="206"/>
-      <c r="U49" s="206"/>
-      <c r="V49" s="207"/>
-      <c r="W49" s="205" t="s">
-        <v>325</v>
-      </c>
-      <c r="X49" s="206"/>
-      <c r="Y49" s="206"/>
-      <c r="Z49" s="206"/>
-      <c r="AA49" s="206"/>
-      <c r="AB49" s="206"/>
-      <c r="AC49" s="206"/>
-      <c r="AD49" s="206"/>
-      <c r="AE49" s="206"/>
-      <c r="AF49" s="206"/>
-      <c r="AG49" s="206"/>
-      <c r="AH49" s="207"/>
+      <c r="F49" s="208" t="s">
+        <v>319</v>
+      </c>
+      <c r="G49" s="209"/>
+      <c r="H49" s="209"/>
+      <c r="I49" s="209"/>
+      <c r="J49" s="209"/>
+      <c r="K49" s="209"/>
+      <c r="L49" s="209"/>
+      <c r="M49" s="209"/>
+      <c r="N49" s="209"/>
+      <c r="O49" s="209"/>
+      <c r="P49" s="209"/>
+      <c r="Q49" s="209"/>
+      <c r="R49" s="209"/>
+      <c r="S49" s="209"/>
+      <c r="T49" s="209"/>
+      <c r="U49" s="209"/>
+      <c r="V49" s="210"/>
+      <c r="W49" s="208" t="s">
+        <v>320</v>
+      </c>
+      <c r="X49" s="209"/>
+      <c r="Y49" s="209"/>
+      <c r="Z49" s="209"/>
+      <c r="AA49" s="209"/>
+      <c r="AB49" s="209"/>
+      <c r="AC49" s="209"/>
+      <c r="AD49" s="209"/>
+      <c r="AE49" s="209"/>
+      <c r="AF49" s="209"/>
+      <c r="AG49" s="209"/>
+      <c r="AH49" s="210"/>
       <c r="AI49" s="12"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.15">
@@ -27148,7 +27106,7 @@
       <c r="U51" s="18"/>
       <c r="V51" s="81"/>
       <c r="W51" s="99" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="X51" s="18"/>
       <c r="Y51" s="18"/>
@@ -27189,7 +27147,7 @@
       <c r="U52" s="18"/>
       <c r="V52" s="81"/>
       <c r="W52" s="99" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="X52" s="18"/>
       <c r="Y52" s="18"/>
@@ -27618,7 +27576,7 @@
       <c r="U63" s="18"/>
       <c r="V63" s="81"/>
       <c r="W63" s="99" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="X63" s="18"/>
       <c r="Y63" s="18"/>
@@ -27659,7 +27617,7 @@
       <c r="U64" s="18"/>
       <c r="V64" s="81"/>
       <c r="W64" s="99" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="X64" s="18"/>
       <c r="Y64" s="18"/>
@@ -27700,7 +27658,7 @@
       <c r="U65" s="18"/>
       <c r="V65" s="81"/>
       <c r="W65" s="99" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="X65" s="18"/>
       <c r="Y65" s="18"/>
@@ -27819,7 +27777,7 @@
       <c r="U68" s="18"/>
       <c r="V68" s="81"/>
       <c r="W68" s="99" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="X68" s="18"/>
       <c r="Y68" s="18"/>
@@ -27897,7 +27855,7 @@
       <c r="U70" s="18"/>
       <c r="V70" s="81"/>
       <c r="W70" s="78" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="X70" s="18"/>
       <c r="Y70" s="18"/>
@@ -27938,7 +27896,7 @@
       <c r="U71" s="18"/>
       <c r="V71" s="81"/>
       <c r="W71" s="99" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="X71" s="18"/>
       <c r="Y71" s="18"/>
@@ -28224,39 +28182,39 @@
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="205" t="s">
-        <v>334</v>
-      </c>
-      <c r="G79" s="206"/>
-      <c r="H79" s="206"/>
-      <c r="I79" s="206"/>
-      <c r="J79" s="206"/>
-      <c r="K79" s="206"/>
-      <c r="L79" s="206"/>
-      <c r="M79" s="206"/>
-      <c r="N79" s="206"/>
-      <c r="O79" s="206"/>
-      <c r="P79" s="206"/>
-      <c r="Q79" s="206"/>
-      <c r="R79" s="206"/>
-      <c r="S79" s="206"/>
-      <c r="T79" s="206"/>
-      <c r="U79" s="206"/>
-      <c r="V79" s="207"/>
-      <c r="W79" s="205" t="s">
-        <v>335</v>
-      </c>
-      <c r="X79" s="206"/>
-      <c r="Y79" s="206"/>
-      <c r="Z79" s="206"/>
-      <c r="AA79" s="206"/>
-      <c r="AB79" s="206"/>
-      <c r="AC79" s="206"/>
-      <c r="AD79" s="206"/>
-      <c r="AE79" s="206"/>
-      <c r="AF79" s="206"/>
-      <c r="AG79" s="206"/>
-      <c r="AH79" s="207"/>
+      <c r="F79" s="208" t="s">
+        <v>329</v>
+      </c>
+      <c r="G79" s="209"/>
+      <c r="H79" s="209"/>
+      <c r="I79" s="209"/>
+      <c r="J79" s="209"/>
+      <c r="K79" s="209"/>
+      <c r="L79" s="209"/>
+      <c r="M79" s="209"/>
+      <c r="N79" s="209"/>
+      <c r="O79" s="209"/>
+      <c r="P79" s="209"/>
+      <c r="Q79" s="209"/>
+      <c r="R79" s="209"/>
+      <c r="S79" s="209"/>
+      <c r="T79" s="209"/>
+      <c r="U79" s="209"/>
+      <c r="V79" s="210"/>
+      <c r="W79" s="208" t="s">
+        <v>330</v>
+      </c>
+      <c r="X79" s="209"/>
+      <c r="Y79" s="209"/>
+      <c r="Z79" s="209"/>
+      <c r="AA79" s="209"/>
+      <c r="AB79" s="209"/>
+      <c r="AC79" s="209"/>
+      <c r="AD79" s="209"/>
+      <c r="AE79" s="209"/>
+      <c r="AF79" s="209"/>
+      <c r="AG79" s="209"/>
+      <c r="AH79" s="210"/>
       <c r="AI79" s="18"/>
     </row>
     <row r="80" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -28285,7 +28243,7 @@
       <c r="U80" s="18"/>
       <c r="V80" s="81"/>
       <c r="W80" s="78" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="X80" s="18"/>
       <c r="Y80" s="18"/>
@@ -28326,7 +28284,7 @@
       <c r="U81" s="18"/>
       <c r="V81" s="81"/>
       <c r="W81" s="99" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="X81" s="18"/>
       <c r="Y81" s="18"/>
@@ -28753,7 +28711,7 @@
       <c r="U92" s="18"/>
       <c r="V92" s="81"/>
       <c r="W92" s="78" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="X92" s="18"/>
       <c r="Y92" s="18"/>
@@ -28794,7 +28752,7 @@
       <c r="U93" s="18"/>
       <c r="V93" s="81"/>
       <c r="W93" s="99" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="X93" s="18"/>
       <c r="Y93" s="18"/>
@@ -29275,7 +29233,7 @@
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="91" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
@@ -29351,39 +29309,39 @@
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
-      <c r="F108" s="205" t="s">
-        <v>341</v>
-      </c>
-      <c r="G108" s="108"/>
-      <c r="H108" s="108"/>
-      <c r="I108" s="108"/>
-      <c r="J108" s="108"/>
-      <c r="K108" s="108"/>
-      <c r="L108" s="108"/>
-      <c r="M108" s="108"/>
-      <c r="N108" s="108"/>
-      <c r="O108" s="108"/>
-      <c r="P108" s="108"/>
-      <c r="Q108" s="108"/>
-      <c r="R108" s="108"/>
-      <c r="S108" s="108"/>
-      <c r="T108" s="108"/>
-      <c r="U108" s="108"/>
-      <c r="V108" s="109"/>
-      <c r="W108" s="205" t="s">
-        <v>342</v>
-      </c>
-      <c r="X108" s="108"/>
-      <c r="Y108" s="108"/>
-      <c r="Z108" s="108"/>
-      <c r="AA108" s="108"/>
-      <c r="AB108" s="108"/>
-      <c r="AC108" s="108"/>
-      <c r="AD108" s="108"/>
-      <c r="AE108" s="108"/>
-      <c r="AF108" s="108"/>
-      <c r="AG108" s="108"/>
-      <c r="AH108" s="109"/>
+      <c r="F108" s="208" t="s">
+        <v>336</v>
+      </c>
+      <c r="G108" s="145"/>
+      <c r="H108" s="145"/>
+      <c r="I108" s="145"/>
+      <c r="J108" s="145"/>
+      <c r="K108" s="145"/>
+      <c r="L108" s="145"/>
+      <c r="M108" s="145"/>
+      <c r="N108" s="145"/>
+      <c r="O108" s="145"/>
+      <c r="P108" s="145"/>
+      <c r="Q108" s="145"/>
+      <c r="R108" s="145"/>
+      <c r="S108" s="145"/>
+      <c r="T108" s="145"/>
+      <c r="U108" s="145"/>
+      <c r="V108" s="146"/>
+      <c r="W108" s="208" t="s">
+        <v>337</v>
+      </c>
+      <c r="X108" s="145"/>
+      <c r="Y108" s="145"/>
+      <c r="Z108" s="145"/>
+      <c r="AA108" s="145"/>
+      <c r="AB108" s="145"/>
+      <c r="AC108" s="145"/>
+      <c r="AD108" s="145"/>
+      <c r="AE108" s="145"/>
+      <c r="AF108" s="145"/>
+      <c r="AG108" s="145"/>
+      <c r="AH108" s="146"/>
       <c r="AI108" s="12"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.15">
@@ -29412,7 +29370,7 @@
       <c r="U109" s="18"/>
       <c r="V109" s="81"/>
       <c r="W109" s="99" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="X109" s="18"/>
       <c r="Y109" s="18"/>
@@ -29453,7 +29411,7 @@
       <c r="U110" s="18"/>
       <c r="V110" s="81"/>
       <c r="W110" s="99" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="X110" s="18"/>
       <c r="Y110" s="18"/>
@@ -29494,7 +29452,7 @@
       <c r="U111" s="18"/>
       <c r="V111" s="81"/>
       <c r="W111" s="99" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="X111" s="18"/>
       <c r="Y111" s="18"/>
@@ -29670,7 +29628,7 @@
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="76" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
@@ -29824,7 +29782,7 @@
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="76" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G120" s="18"/>
       <c r="H120" s="18"/>
@@ -29975,39 +29933,39 @@
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="205" t="s">
-        <v>341</v>
-      </c>
-      <c r="G124" s="108"/>
-      <c r="H124" s="108"/>
-      <c r="I124" s="108"/>
-      <c r="J124" s="108"/>
-      <c r="K124" s="108"/>
-      <c r="L124" s="108"/>
-      <c r="M124" s="108"/>
-      <c r="N124" s="108"/>
-      <c r="O124" s="108"/>
-      <c r="P124" s="108"/>
-      <c r="Q124" s="108"/>
-      <c r="R124" s="108"/>
-      <c r="S124" s="108"/>
-      <c r="T124" s="108"/>
-      <c r="U124" s="108"/>
-      <c r="V124" s="109"/>
-      <c r="W124" s="205" t="s">
-        <v>348</v>
-      </c>
-      <c r="X124" s="108"/>
-      <c r="Y124" s="108"/>
-      <c r="Z124" s="108"/>
-      <c r="AA124" s="108"/>
-      <c r="AB124" s="108"/>
-      <c r="AC124" s="108"/>
-      <c r="AD124" s="108"/>
-      <c r="AE124" s="108"/>
-      <c r="AF124" s="108"/>
-      <c r="AG124" s="108"/>
-      <c r="AH124" s="109"/>
+      <c r="F124" s="208" t="s">
+        <v>336</v>
+      </c>
+      <c r="G124" s="145"/>
+      <c r="H124" s="145"/>
+      <c r="I124" s="145"/>
+      <c r="J124" s="145"/>
+      <c r="K124" s="145"/>
+      <c r="L124" s="145"/>
+      <c r="M124" s="145"/>
+      <c r="N124" s="145"/>
+      <c r="O124" s="145"/>
+      <c r="P124" s="145"/>
+      <c r="Q124" s="145"/>
+      <c r="R124" s="145"/>
+      <c r="S124" s="145"/>
+      <c r="T124" s="145"/>
+      <c r="U124" s="145"/>
+      <c r="V124" s="146"/>
+      <c r="W124" s="208" t="s">
+        <v>343</v>
+      </c>
+      <c r="X124" s="145"/>
+      <c r="Y124" s="145"/>
+      <c r="Z124" s="145"/>
+      <c r="AA124" s="145"/>
+      <c r="AB124" s="145"/>
+      <c r="AC124" s="145"/>
+      <c r="AD124" s="145"/>
+      <c r="AE124" s="145"/>
+      <c r="AF124" s="145"/>
+      <c r="AG124" s="145"/>
+      <c r="AH124" s="146"/>
       <c r="AI124" s="12"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.15">
@@ -30210,7 +30168,7 @@
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="99" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="18"/>
@@ -30229,7 +30187,7 @@
       <c r="U130" s="18"/>
       <c r="V130" s="81"/>
       <c r="W130" s="99" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="X130" s="18"/>
       <c r="Y130" s="18"/>
@@ -30251,7 +30209,7 @@
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="99" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G131" s="18"/>
       <c r="H131" s="18"/>
@@ -30270,7 +30228,7 @@
       <c r="U131" s="18"/>
       <c r="V131" s="81"/>
       <c r="W131" s="99" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="X131" s="18"/>
       <c r="Y131" s="18"/>
@@ -30292,7 +30250,7 @@
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="99" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G132" s="18"/>
       <c r="H132" s="18"/>
@@ -30311,7 +30269,7 @@
       <c r="U132" s="18"/>
       <c r="V132" s="81"/>
       <c r="W132" s="99" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="X132" s="18"/>
       <c r="Y132" s="18"/>
@@ -30333,7 +30291,7 @@
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="99" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G133" s="18"/>
       <c r="H133" s="18"/>
@@ -30352,7 +30310,7 @@
       <c r="U133" s="18"/>
       <c r="V133" s="81"/>
       <c r="W133" s="99" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="X133" s="18"/>
       <c r="Y133" s="18"/>
@@ -30374,7 +30332,7 @@
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="99" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G134" s="18"/>
       <c r="H134" s="18"/>
@@ -30415,7 +30373,7 @@
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="99" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G135" s="18"/>
       <c r="H135" s="18"/>
@@ -30454,7 +30412,7 @@
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="99" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G136" s="18"/>
       <c r="H136" s="18"/>
@@ -30493,7 +30451,7 @@
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="99" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G137" s="18"/>
       <c r="H137" s="18"/>
@@ -30532,7 +30490,7 @@
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="99" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G138" s="18"/>
       <c r="H138" s="18"/>
@@ -30610,7 +30568,7 @@
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="99" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G140" s="18"/>
       <c r="H140" s="18"/>
@@ -30744,7 +30702,7 @@
       <c r="U143" s="18"/>
       <c r="V143" s="81"/>
       <c r="W143" s="99" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="X143" s="18"/>
       <c r="Y143" s="18"/>
@@ -30785,7 +30743,7 @@
       <c r="U144" s="18"/>
       <c r="V144" s="81"/>
       <c r="W144" s="99" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="X144" s="18"/>
       <c r="Y144" s="18"/>
@@ -30826,7 +30784,7 @@
       <c r="U145" s="18"/>
       <c r="V145" s="81"/>
       <c r="W145" s="93" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="X145" s="18"/>
       <c r="Y145" s="18"/>
@@ -30867,7 +30825,7 @@
       <c r="U146" s="18"/>
       <c r="V146" s="81"/>
       <c r="W146" s="99" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="X146" s="18"/>
       <c r="Y146" s="18"/>
@@ -30908,7 +30866,7 @@
       <c r="U147" s="18"/>
       <c r="V147" s="81"/>
       <c r="W147" s="99" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="X147" s="18"/>
       <c r="Y147" s="18"/>
@@ -31086,7 +31044,7 @@
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
       <c r="F152" s="99" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
@@ -31125,7 +31083,7 @@
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="99" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G153" s="18"/>
       <c r="H153" s="18"/>
@@ -31164,7 +31122,7 @@
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
       <c r="F154" s="99" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G154" s="18"/>
       <c r="H154" s="18"/>
@@ -31261,7 +31219,7 @@
       <c r="U156" s="18"/>
       <c r="V156" s="81"/>
       <c r="W156" s="99" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="X156" s="18"/>
       <c r="Y156" s="18"/>
@@ -31300,7 +31258,7 @@
       <c r="U157" s="18"/>
       <c r="V157" s="81"/>
       <c r="W157" s="99" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="X157" s="18"/>
       <c r="Y157" s="18"/>
@@ -31341,7 +31299,7 @@
       <c r="U158" s="18"/>
       <c r="V158" s="81"/>
       <c r="W158" s="99" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="X158" s="18"/>
       <c r="Y158" s="18"/>
@@ -31631,39 +31589,39 @@
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
-      <c r="F166" s="205" t="s">
-        <v>341</v>
-      </c>
-      <c r="G166" s="108"/>
-      <c r="H166" s="108"/>
-      <c r="I166" s="108"/>
-      <c r="J166" s="108"/>
-      <c r="K166" s="108"/>
-      <c r="L166" s="108"/>
-      <c r="M166" s="108"/>
-      <c r="N166" s="108"/>
-      <c r="O166" s="108"/>
-      <c r="P166" s="108"/>
-      <c r="Q166" s="108"/>
-      <c r="R166" s="108"/>
-      <c r="S166" s="108"/>
-      <c r="T166" s="108"/>
-      <c r="U166" s="108"/>
-      <c r="V166" s="109"/>
-      <c r="W166" s="205" t="s">
-        <v>348</v>
-      </c>
-      <c r="X166" s="108"/>
-      <c r="Y166" s="108"/>
-      <c r="Z166" s="108"/>
-      <c r="AA166" s="108"/>
-      <c r="AB166" s="108"/>
-      <c r="AC166" s="108"/>
-      <c r="AD166" s="108"/>
-      <c r="AE166" s="108"/>
-      <c r="AF166" s="108"/>
-      <c r="AG166" s="108"/>
-      <c r="AH166" s="109"/>
+      <c r="F166" s="208" t="s">
+        <v>336</v>
+      </c>
+      <c r="G166" s="145"/>
+      <c r="H166" s="145"/>
+      <c r="I166" s="145"/>
+      <c r="J166" s="145"/>
+      <c r="K166" s="145"/>
+      <c r="L166" s="145"/>
+      <c r="M166" s="145"/>
+      <c r="N166" s="145"/>
+      <c r="O166" s="145"/>
+      <c r="P166" s="145"/>
+      <c r="Q166" s="145"/>
+      <c r="R166" s="145"/>
+      <c r="S166" s="145"/>
+      <c r="T166" s="145"/>
+      <c r="U166" s="145"/>
+      <c r="V166" s="146"/>
+      <c r="W166" s="208" t="s">
+        <v>343</v>
+      </c>
+      <c r="X166" s="145"/>
+      <c r="Y166" s="145"/>
+      <c r="Z166" s="145"/>
+      <c r="AA166" s="145"/>
+      <c r="AB166" s="145"/>
+      <c r="AC166" s="145"/>
+      <c r="AD166" s="145"/>
+      <c r="AE166" s="145"/>
+      <c r="AF166" s="145"/>
+      <c r="AG166" s="145"/>
+      <c r="AH166" s="146"/>
       <c r="AI166" s="18"/>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.15">
@@ -31692,7 +31650,7 @@
       <c r="U167" s="18"/>
       <c r="V167" s="81"/>
       <c r="W167" s="99" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="X167" s="18"/>
       <c r="Y167" s="18"/>
@@ -31714,7 +31672,7 @@
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
       <c r="F168" s="99" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G168" s="18"/>
       <c r="H168" s="18"/>
@@ -31733,7 +31691,7 @@
       <c r="U168" s="18"/>
       <c r="V168" s="81"/>
       <c r="W168" s="99" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="X168" s="18"/>
       <c r="Y168" s="18"/>
@@ -31755,7 +31713,7 @@
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
       <c r="F169" s="99" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G169" s="18"/>
       <c r="H169" s="18"/>
@@ -31774,7 +31732,7 @@
       <c r="U169" s="18"/>
       <c r="V169" s="81"/>
       <c r="W169" s="99" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="X169" s="18"/>
       <c r="Y169" s="18"/>
@@ -31796,7 +31754,7 @@
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
       <c r="F170" s="99" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
@@ -32260,7 +32218,7 @@
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
       <c r="F182" s="99" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G182" s="18"/>
       <c r="H182" s="18"/>
@@ -32279,7 +32237,7 @@
       <c r="U182" s="18"/>
       <c r="V182" s="81"/>
       <c r="W182" s="99" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="X182" s="18"/>
       <c r="Y182" s="18"/>
@@ -32301,7 +32259,7 @@
       <c r="D183" s="12"/>
       <c r="E183" s="12"/>
       <c r="F183" s="99" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G183" s="18"/>
       <c r="H183" s="18"/>
@@ -32320,7 +32278,7 @@
       <c r="U183" s="18"/>
       <c r="V183" s="81"/>
       <c r="W183" s="93" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="X183" s="18"/>
       <c r="Y183" s="18"/>
@@ -32342,7 +32300,7 @@
       <c r="D184" s="12"/>
       <c r="E184" s="12"/>
       <c r="F184" s="99" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G184" s="18"/>
       <c r="H184" s="18"/>
@@ -32361,7 +32319,7 @@
       <c r="U184" s="18"/>
       <c r="V184" s="81"/>
       <c r="W184" s="99" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="X184" s="18"/>
       <c r="Y184" s="18"/>
@@ -32383,7 +32341,7 @@
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="99" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G185" s="18"/>
       <c r="H185" s="18"/>
@@ -32424,7 +32382,7 @@
       <c r="D186" s="12"/>
       <c r="E186" s="12"/>
       <c r="F186" s="99" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G186" s="18"/>
       <c r="H186" s="18"/>
@@ -32463,7 +32421,7 @@
       <c r="D187" s="12"/>
       <c r="E187" s="12"/>
       <c r="F187" s="99" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G187" s="18"/>
       <c r="H187" s="18"/>
@@ -32502,7 +32460,7 @@
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
       <c r="F188" s="99" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G188" s="18"/>
       <c r="H188" s="18"/>
@@ -32541,7 +32499,7 @@
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="99" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G189" s="18"/>
       <c r="H189" s="18"/>
@@ -32580,7 +32538,7 @@
       <c r="D190" s="12"/>
       <c r="E190" s="12"/>
       <c r="F190" s="99" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G190" s="18"/>
       <c r="H190" s="18"/>
@@ -32619,7 +32577,7 @@
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
       <c r="F191" s="99" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G191" s="18"/>
       <c r="H191" s="18"/>
@@ -32658,7 +32616,7 @@
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
       <c r="F192" s="99" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G192" s="18"/>
       <c r="H192" s="18"/>
@@ -32736,7 +32694,7 @@
       <c r="D194" s="12"/>
       <c r="E194" s="12"/>
       <c r="F194" s="99" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G194" s="18"/>
       <c r="H194" s="18"/>
@@ -32887,39 +32845,39 @@
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
-      <c r="F198" s="205" t="s">
-        <v>341</v>
-      </c>
-      <c r="G198" s="108"/>
-      <c r="H198" s="108"/>
-      <c r="I198" s="108"/>
-      <c r="J198" s="108"/>
-      <c r="K198" s="108"/>
-      <c r="L198" s="108"/>
-      <c r="M198" s="108"/>
-      <c r="N198" s="108"/>
-      <c r="O198" s="108"/>
-      <c r="P198" s="108"/>
-      <c r="Q198" s="108"/>
-      <c r="R198" s="108"/>
-      <c r="S198" s="108"/>
-      <c r="T198" s="108"/>
-      <c r="U198" s="108"/>
-      <c r="V198" s="109"/>
-      <c r="W198" s="205" t="s">
-        <v>348</v>
-      </c>
-      <c r="X198" s="108"/>
-      <c r="Y198" s="108"/>
-      <c r="Z198" s="108"/>
-      <c r="AA198" s="108"/>
-      <c r="AB198" s="108"/>
-      <c r="AC198" s="108"/>
-      <c r="AD198" s="108"/>
-      <c r="AE198" s="108"/>
-      <c r="AF198" s="108"/>
-      <c r="AG198" s="108"/>
-      <c r="AH198" s="109"/>
+      <c r="F198" s="208" t="s">
+        <v>336</v>
+      </c>
+      <c r="G198" s="145"/>
+      <c r="H198" s="145"/>
+      <c r="I198" s="145"/>
+      <c r="J198" s="145"/>
+      <c r="K198" s="145"/>
+      <c r="L198" s="145"/>
+      <c r="M198" s="145"/>
+      <c r="N198" s="145"/>
+      <c r="O198" s="145"/>
+      <c r="P198" s="145"/>
+      <c r="Q198" s="145"/>
+      <c r="R198" s="145"/>
+      <c r="S198" s="145"/>
+      <c r="T198" s="145"/>
+      <c r="U198" s="145"/>
+      <c r="V198" s="146"/>
+      <c r="W198" s="208" t="s">
+        <v>343</v>
+      </c>
+      <c r="X198" s="145"/>
+      <c r="Y198" s="145"/>
+      <c r="Z198" s="145"/>
+      <c r="AA198" s="145"/>
+      <c r="AB198" s="145"/>
+      <c r="AC198" s="145"/>
+      <c r="AD198" s="145"/>
+      <c r="AE198" s="145"/>
+      <c r="AF198" s="145"/>
+      <c r="AG198" s="145"/>
+      <c r="AH198" s="146"/>
       <c r="AI198" s="18"/>
     </row>
     <row r="199" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -32968,7 +32926,7 @@
       <c r="D200" s="12"/>
       <c r="E200" s="12"/>
       <c r="F200" s="99" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G200" s="18"/>
       <c r="H200" s="18"/>
@@ -34402,39 +34360,39 @@
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
-      <c r="F237" s="205" t="s">
-        <v>341</v>
-      </c>
-      <c r="G237" s="108"/>
-      <c r="H237" s="108"/>
-      <c r="I237" s="108"/>
-      <c r="J237" s="108"/>
-      <c r="K237" s="108"/>
-      <c r="L237" s="108"/>
-      <c r="M237" s="108"/>
-      <c r="N237" s="108"/>
-      <c r="O237" s="108"/>
-      <c r="P237" s="108"/>
-      <c r="Q237" s="108"/>
-      <c r="R237" s="108"/>
-      <c r="S237" s="108"/>
-      <c r="T237" s="108"/>
-      <c r="U237" s="108"/>
-      <c r="V237" s="109"/>
-      <c r="W237" s="205" t="s">
-        <v>348</v>
-      </c>
-      <c r="X237" s="108"/>
-      <c r="Y237" s="108"/>
-      <c r="Z237" s="108"/>
-      <c r="AA237" s="108"/>
-      <c r="AB237" s="108"/>
-      <c r="AC237" s="108"/>
-      <c r="AD237" s="108"/>
-      <c r="AE237" s="108"/>
-      <c r="AF237" s="108"/>
-      <c r="AG237" s="108"/>
-      <c r="AH237" s="109"/>
+      <c r="F237" s="208" t="s">
+        <v>336</v>
+      </c>
+      <c r="G237" s="145"/>
+      <c r="H237" s="145"/>
+      <c r="I237" s="145"/>
+      <c r="J237" s="145"/>
+      <c r="K237" s="145"/>
+      <c r="L237" s="145"/>
+      <c r="M237" s="145"/>
+      <c r="N237" s="145"/>
+      <c r="O237" s="145"/>
+      <c r="P237" s="145"/>
+      <c r="Q237" s="145"/>
+      <c r="R237" s="145"/>
+      <c r="S237" s="145"/>
+      <c r="T237" s="145"/>
+      <c r="U237" s="145"/>
+      <c r="V237" s="146"/>
+      <c r="W237" s="208" t="s">
+        <v>343</v>
+      </c>
+      <c r="X237" s="145"/>
+      <c r="Y237" s="145"/>
+      <c r="Z237" s="145"/>
+      <c r="AA237" s="145"/>
+      <c r="AB237" s="145"/>
+      <c r="AC237" s="145"/>
+      <c r="AD237" s="145"/>
+      <c r="AE237" s="145"/>
+      <c r="AF237" s="145"/>
+      <c r="AG237" s="145"/>
+      <c r="AH237" s="146"/>
       <c r="AI237" s="18"/>
     </row>
     <row r="238" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -34483,7 +34441,7 @@
       <c r="D239" s="12"/>
       <c r="E239" s="12"/>
       <c r="F239" s="99" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G239" s="18"/>
       <c r="H239" s="18"/>
@@ -34521,25 +34479,25 @@
       <c r="C240" s="12"/>
       <c r="D240" s="12"/>
       <c r="E240" s="12"/>
-      <c r="F240" s="208" t="s">
-        <v>388</v>
-      </c>
-      <c r="G240" s="209"/>
-      <c r="H240" s="209"/>
-      <c r="I240" s="209"/>
-      <c r="J240" s="209"/>
-      <c r="K240" s="209"/>
-      <c r="L240" s="209"/>
-      <c r="M240" s="209"/>
-      <c r="N240" s="209"/>
-      <c r="O240" s="209"/>
-      <c r="P240" s="209"/>
-      <c r="Q240" s="209"/>
-      <c r="R240" s="209"/>
-      <c r="S240" s="209"/>
-      <c r="T240" s="209"/>
-      <c r="U240" s="209"/>
-      <c r="V240" s="210"/>
+      <c r="F240" s="205" t="s">
+        <v>383</v>
+      </c>
+      <c r="G240" s="206"/>
+      <c r="H240" s="206"/>
+      <c r="I240" s="206"/>
+      <c r="J240" s="206"/>
+      <c r="K240" s="206"/>
+      <c r="L240" s="206"/>
+      <c r="M240" s="206"/>
+      <c r="N240" s="206"/>
+      <c r="O240" s="206"/>
+      <c r="P240" s="206"/>
+      <c r="Q240" s="206"/>
+      <c r="R240" s="206"/>
+      <c r="S240" s="206"/>
+      <c r="T240" s="206"/>
+      <c r="U240" s="206"/>
+      <c r="V240" s="207"/>
       <c r="W240" s="18"/>
       <c r="X240" s="18"/>
       <c r="Y240" s="18"/>
@@ -34561,7 +34519,7 @@
       <c r="D241" s="12"/>
       <c r="E241" s="12"/>
       <c r="F241" s="99" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G241" s="18"/>
       <c r="H241" s="18"/>
@@ -35256,39 +35214,39 @@
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
-      <c r="F259" s="205" t="s">
-        <v>341</v>
-      </c>
-      <c r="G259" s="108"/>
-      <c r="H259" s="108"/>
-      <c r="I259" s="108"/>
-      <c r="J259" s="108"/>
-      <c r="K259" s="108"/>
-      <c r="L259" s="108"/>
-      <c r="M259" s="108"/>
-      <c r="N259" s="108"/>
-      <c r="O259" s="108"/>
-      <c r="P259" s="108"/>
-      <c r="Q259" s="108"/>
-      <c r="R259" s="108"/>
-      <c r="S259" s="108"/>
-      <c r="T259" s="108"/>
-      <c r="U259" s="108"/>
-      <c r="V259" s="109"/>
-      <c r="W259" s="205" t="s">
-        <v>348</v>
-      </c>
-      <c r="X259" s="108"/>
-      <c r="Y259" s="108"/>
-      <c r="Z259" s="108"/>
-      <c r="AA259" s="108"/>
-      <c r="AB259" s="108"/>
-      <c r="AC259" s="108"/>
-      <c r="AD259" s="108"/>
-      <c r="AE259" s="108"/>
-      <c r="AF259" s="108"/>
-      <c r="AG259" s="108"/>
-      <c r="AH259" s="109"/>
+      <c r="F259" s="208" t="s">
+        <v>336</v>
+      </c>
+      <c r="G259" s="145"/>
+      <c r="H259" s="145"/>
+      <c r="I259" s="145"/>
+      <c r="J259" s="145"/>
+      <c r="K259" s="145"/>
+      <c r="L259" s="145"/>
+      <c r="M259" s="145"/>
+      <c r="N259" s="145"/>
+      <c r="O259" s="145"/>
+      <c r="P259" s="145"/>
+      <c r="Q259" s="145"/>
+      <c r="R259" s="145"/>
+      <c r="S259" s="145"/>
+      <c r="T259" s="145"/>
+      <c r="U259" s="145"/>
+      <c r="V259" s="146"/>
+      <c r="W259" s="208" t="s">
+        <v>343</v>
+      </c>
+      <c r="X259" s="145"/>
+      <c r="Y259" s="145"/>
+      <c r="Z259" s="145"/>
+      <c r="AA259" s="145"/>
+      <c r="AB259" s="145"/>
+      <c r="AC259" s="145"/>
+      <c r="AD259" s="145"/>
+      <c r="AE259" s="145"/>
+      <c r="AF259" s="145"/>
+      <c r="AG259" s="145"/>
+      <c r="AH259" s="146"/>
       <c r="AI259" s="18"/>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.15">
@@ -35317,7 +35275,7 @@
       <c r="U260" s="18"/>
       <c r="V260" s="81"/>
       <c r="W260" s="99" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="X260" s="18"/>
       <c r="Y260" s="18"/>
@@ -35339,7 +35297,7 @@
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
       <c r="F261" s="76" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G261" s="18"/>
       <c r="H261" s="18"/>
@@ -35358,7 +35316,7 @@
       <c r="U261" s="18"/>
       <c r="V261" s="81"/>
       <c r="W261" s="99" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="X261" s="18"/>
       <c r="Y261" s="18"/>
@@ -35399,7 +35357,7 @@
       <c r="U262" s="18"/>
       <c r="V262" s="81"/>
       <c r="W262" s="99" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="X262" s="18"/>
       <c r="Y262" s="18"/>
@@ -35497,7 +35455,7 @@
       <c r="D265" s="12"/>
       <c r="E265" s="12"/>
       <c r="F265" s="76" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G265" s="18"/>
       <c r="H265" s="18"/>
@@ -35722,7 +35680,7 @@
       <c r="C271" s="12"/>
       <c r="D271" s="12"/>
       <c r="E271" s="92" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F271" s="12"/>
       <c r="G271" s="18"/>
@@ -35798,39 +35756,39 @@
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
-      <c r="F273" s="205" t="s">
-        <v>393</v>
-      </c>
-      <c r="G273" s="206"/>
-      <c r="H273" s="206"/>
-      <c r="I273" s="206"/>
-      <c r="J273" s="206"/>
-      <c r="K273" s="206"/>
-      <c r="L273" s="206"/>
-      <c r="M273" s="206"/>
-      <c r="N273" s="206"/>
-      <c r="O273" s="206"/>
-      <c r="P273" s="206"/>
-      <c r="Q273" s="206"/>
-      <c r="R273" s="206"/>
-      <c r="S273" s="206"/>
-      <c r="T273" s="206"/>
-      <c r="U273" s="206"/>
-      <c r="V273" s="207"/>
-      <c r="W273" s="205" t="s">
-        <v>394</v>
-      </c>
-      <c r="X273" s="206"/>
-      <c r="Y273" s="206"/>
-      <c r="Z273" s="206"/>
-      <c r="AA273" s="206"/>
-      <c r="AB273" s="206"/>
-      <c r="AC273" s="206"/>
-      <c r="AD273" s="206"/>
-      <c r="AE273" s="206"/>
-      <c r="AF273" s="206"/>
-      <c r="AG273" s="206"/>
-      <c r="AH273" s="207"/>
+      <c r="F273" s="208" t="s">
+        <v>388</v>
+      </c>
+      <c r="G273" s="209"/>
+      <c r="H273" s="209"/>
+      <c r="I273" s="209"/>
+      <c r="J273" s="209"/>
+      <c r="K273" s="209"/>
+      <c r="L273" s="209"/>
+      <c r="M273" s="209"/>
+      <c r="N273" s="209"/>
+      <c r="O273" s="209"/>
+      <c r="P273" s="209"/>
+      <c r="Q273" s="209"/>
+      <c r="R273" s="209"/>
+      <c r="S273" s="209"/>
+      <c r="T273" s="209"/>
+      <c r="U273" s="209"/>
+      <c r="V273" s="210"/>
+      <c r="W273" s="208" t="s">
+        <v>389</v>
+      </c>
+      <c r="X273" s="209"/>
+      <c r="Y273" s="209"/>
+      <c r="Z273" s="209"/>
+      <c r="AA273" s="209"/>
+      <c r="AB273" s="209"/>
+      <c r="AC273" s="209"/>
+      <c r="AD273" s="209"/>
+      <c r="AE273" s="209"/>
+      <c r="AF273" s="209"/>
+      <c r="AG273" s="209"/>
+      <c r="AH273" s="210"/>
       <c r="AI273" s="12"/>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.15">
@@ -35935,7 +35893,7 @@
       <c r="U276" s="18"/>
       <c r="V276" s="81"/>
       <c r="W276" s="99" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="X276" s="18"/>
       <c r="Y276" s="18"/>
@@ -35976,7 +35934,7 @@
       <c r="U277" s="18"/>
       <c r="V277" s="81"/>
       <c r="W277" s="99" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="X277" s="18"/>
       <c r="Y277" s="18"/>
@@ -36327,7 +36285,7 @@
       <c r="U286" s="18"/>
       <c r="V286" s="81"/>
       <c r="W286" s="99" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="X286" s="18"/>
       <c r="Y286" s="18"/>
@@ -36368,7 +36326,7 @@
       <c r="U287" s="18"/>
       <c r="V287" s="81"/>
       <c r="W287" s="99" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="X287" s="18"/>
       <c r="Y287" s="18"/>
@@ -36409,7 +36367,7 @@
       <c r="U288" s="18"/>
       <c r="V288" s="81"/>
       <c r="W288" s="99" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="X288" s="18"/>
       <c r="Y288" s="18"/>
@@ -36489,7 +36447,7 @@
       <c r="U290" s="18"/>
       <c r="V290" s="81"/>
       <c r="W290" s="99" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="X290" s="18"/>
       <c r="Y290" s="18"/>
@@ -36660,39 +36618,39 @@
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
-      <c r="F295" s="205" t="s">
-        <v>393</v>
-      </c>
-      <c r="G295" s="206"/>
-      <c r="H295" s="206"/>
-      <c r="I295" s="206"/>
-      <c r="J295" s="206"/>
-      <c r="K295" s="206"/>
-      <c r="L295" s="206"/>
-      <c r="M295" s="206"/>
-      <c r="N295" s="206"/>
-      <c r="O295" s="206"/>
-      <c r="P295" s="206"/>
-      <c r="Q295" s="206"/>
-      <c r="R295" s="206"/>
-      <c r="S295" s="206"/>
-      <c r="T295" s="206"/>
-      <c r="U295" s="206"/>
-      <c r="V295" s="207"/>
-      <c r="W295" s="205" t="s">
-        <v>394</v>
-      </c>
-      <c r="X295" s="206"/>
-      <c r="Y295" s="206"/>
-      <c r="Z295" s="206"/>
-      <c r="AA295" s="206"/>
-      <c r="AB295" s="206"/>
-      <c r="AC295" s="206"/>
-      <c r="AD295" s="206"/>
-      <c r="AE295" s="206"/>
-      <c r="AF295" s="206"/>
-      <c r="AG295" s="206"/>
-      <c r="AH295" s="207"/>
+      <c r="F295" s="208" t="s">
+        <v>388</v>
+      </c>
+      <c r="G295" s="209"/>
+      <c r="H295" s="209"/>
+      <c r="I295" s="209"/>
+      <c r="J295" s="209"/>
+      <c r="K295" s="209"/>
+      <c r="L295" s="209"/>
+      <c r="M295" s="209"/>
+      <c r="N295" s="209"/>
+      <c r="O295" s="209"/>
+      <c r="P295" s="209"/>
+      <c r="Q295" s="209"/>
+      <c r="R295" s="209"/>
+      <c r="S295" s="209"/>
+      <c r="T295" s="209"/>
+      <c r="U295" s="209"/>
+      <c r="V295" s="210"/>
+      <c r="W295" s="208" t="s">
+        <v>389</v>
+      </c>
+      <c r="X295" s="209"/>
+      <c r="Y295" s="209"/>
+      <c r="Z295" s="209"/>
+      <c r="AA295" s="209"/>
+      <c r="AB295" s="209"/>
+      <c r="AC295" s="209"/>
+      <c r="AD295" s="209"/>
+      <c r="AE295" s="209"/>
+      <c r="AF295" s="209"/>
+      <c r="AG295" s="209"/>
+      <c r="AH295" s="210"/>
       <c r="AI295" s="18"/>
     </row>
     <row r="296" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -36721,7 +36679,7 @@
       <c r="U296" s="18"/>
       <c r="V296" s="18"/>
       <c r="W296" s="78" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="X296" s="18"/>
       <c r="Y296" s="18"/>
@@ -36762,7 +36720,7 @@
       <c r="U297" s="18"/>
       <c r="V297" s="18"/>
       <c r="W297" s="99" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="X297" s="18"/>
       <c r="Y297" s="18"/>
@@ -37267,7 +37225,7 @@
       <c r="U310" s="18"/>
       <c r="V310" s="18"/>
       <c r="W310" s="78" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="X310" s="18"/>
       <c r="Y310" s="18"/>
@@ -37306,7 +37264,7 @@
       <c r="U311" s="18"/>
       <c r="V311" s="18"/>
       <c r="W311" s="99" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="X311" s="18"/>
       <c r="Y311" s="18"/>
@@ -37367,7 +37325,7 @@
       <c r="D313" s="12"/>
       <c r="E313" s="12"/>
       <c r="F313" s="76" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G313" s="18"/>
       <c r="H313" s="18"/>
@@ -37597,7 +37555,7 @@
       <c r="D319" s="12"/>
       <c r="E319" s="12"/>
       <c r="F319" s="76" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G319" s="18"/>
       <c r="H319" s="18"/>
@@ -38210,7 +38168,7 @@
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
       <c r="E335" s="91" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F335" s="12"/>
       <c r="G335" s="12"/>
@@ -38286,39 +38244,39 @@
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
       <c r="E337" s="12"/>
-      <c r="F337" s="205" t="s">
-        <v>406</v>
-      </c>
-      <c r="G337" s="206"/>
-      <c r="H337" s="206"/>
-      <c r="I337" s="206"/>
-      <c r="J337" s="206"/>
-      <c r="K337" s="206"/>
-      <c r="L337" s="206"/>
-      <c r="M337" s="206"/>
-      <c r="N337" s="206"/>
-      <c r="O337" s="206"/>
-      <c r="P337" s="206"/>
-      <c r="Q337" s="206"/>
-      <c r="R337" s="206"/>
-      <c r="S337" s="206"/>
-      <c r="T337" s="206"/>
-      <c r="U337" s="206"/>
-      <c r="V337" s="207"/>
-      <c r="W337" s="205" t="s">
-        <v>407</v>
-      </c>
-      <c r="X337" s="206"/>
-      <c r="Y337" s="206"/>
-      <c r="Z337" s="206"/>
-      <c r="AA337" s="206"/>
-      <c r="AB337" s="206"/>
-      <c r="AC337" s="206"/>
-      <c r="AD337" s="206"/>
-      <c r="AE337" s="206"/>
-      <c r="AF337" s="206"/>
-      <c r="AG337" s="206"/>
-      <c r="AH337" s="207"/>
+      <c r="F337" s="208" t="s">
+        <v>401</v>
+      </c>
+      <c r="G337" s="209"/>
+      <c r="H337" s="209"/>
+      <c r="I337" s="209"/>
+      <c r="J337" s="209"/>
+      <c r="K337" s="209"/>
+      <c r="L337" s="209"/>
+      <c r="M337" s="209"/>
+      <c r="N337" s="209"/>
+      <c r="O337" s="209"/>
+      <c r="P337" s="209"/>
+      <c r="Q337" s="209"/>
+      <c r="R337" s="209"/>
+      <c r="S337" s="209"/>
+      <c r="T337" s="209"/>
+      <c r="U337" s="209"/>
+      <c r="V337" s="210"/>
+      <c r="W337" s="208" t="s">
+        <v>402</v>
+      </c>
+      <c r="X337" s="209"/>
+      <c r="Y337" s="209"/>
+      <c r="Z337" s="209"/>
+      <c r="AA337" s="209"/>
+      <c r="AB337" s="209"/>
+      <c r="AC337" s="209"/>
+      <c r="AD337" s="209"/>
+      <c r="AE337" s="209"/>
+      <c r="AF337" s="209"/>
+      <c r="AG337" s="209"/>
+      <c r="AH337" s="210"/>
       <c r="AI337" s="12"/>
     </row>
     <row r="338" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -38738,21 +38696,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F240:V240"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="W198:AH198"/>
-    <mergeCell ref="F49:V49"/>
-    <mergeCell ref="W49:AH49"/>
-    <mergeCell ref="F79:V79"/>
-    <mergeCell ref="W79:AH79"/>
-    <mergeCell ref="F108:V108"/>
-    <mergeCell ref="W108:AH108"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="F295:V295"/>
     <mergeCell ref="W295:AH295"/>
     <mergeCell ref="F337:V337"/>
@@ -38769,15 +38721,21 @@
     <mergeCell ref="F166:V166"/>
     <mergeCell ref="W166:AH166"/>
     <mergeCell ref="F198:V198"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F240:V240"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="W198:AH198"/>
+    <mergeCell ref="F49:V49"/>
+    <mergeCell ref="W49:AH49"/>
+    <mergeCell ref="F79:V79"/>
+    <mergeCell ref="W79:AH79"/>
+    <mergeCell ref="F108:V108"/>
+    <mergeCell ref="W108:AH108"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -38815,163 +38773,163 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" s="3" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="162" t="str">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="172" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="211" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="220" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="212"/>
-      <c r="U1" s="212"/>
-      <c r="V1" s="212"/>
-      <c r="W1" s="212"/>
-      <c r="X1" s="212"/>
-      <c r="Y1" s="212"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="169" t="s">
+      <c r="T1" s="221"/>
+      <c r="U1" s="221"/>
+      <c r="V1" s="221"/>
+      <c r="W1" s="221"/>
+      <c r="X1" s="221"/>
+      <c r="Y1" s="221"/>
+      <c r="Z1" s="222"/>
+      <c r="AA1" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="189">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="168"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:52" s="3" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="162" t="str">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="216"/>
-      <c r="AA2" s="169" t="s">
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="168"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:52" s="3" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="162" t="str">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="227"/>
+      <c r="W3" s="227"/>
+      <c r="X3" s="227"/>
+      <c r="Y3" s="227"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="168"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -39033,7 +38991,7 @@
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="72" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -39144,7 +39102,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="91" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -39200,7 +39158,7 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="91" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -39256,7 +39214,7 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="91" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -39369,40 +39327,40 @@
       <c r="D11" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="206"/>
-      <c r="J11" s="206"/>
-      <c r="K11" s="206"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="206"/>
-      <c r="N11" s="206"/>
-      <c r="O11" s="206"/>
-      <c r="P11" s="206"/>
-      <c r="Q11" s="206"/>
-      <c r="R11" s="206"/>
-      <c r="S11" s="206"/>
-      <c r="T11" s="206"/>
-      <c r="U11" s="207"/>
-      <c r="V11" s="205" t="s">
-        <v>414</v>
-      </c>
-      <c r="W11" s="206"/>
-      <c r="X11" s="206"/>
-      <c r="Y11" s="206"/>
-      <c r="Z11" s="206"/>
-      <c r="AA11" s="206"/>
-      <c r="AB11" s="206"/>
-      <c r="AC11" s="206"/>
-      <c r="AD11" s="206"/>
-      <c r="AE11" s="206"/>
-      <c r="AF11" s="206"/>
-      <c r="AG11" s="206"/>
-      <c r="AH11" s="207"/>
+      <c r="E11" s="208" t="s">
+        <v>408</v>
+      </c>
+      <c r="F11" s="209"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="209"/>
+      <c r="N11" s="209"/>
+      <c r="O11" s="209"/>
+      <c r="P11" s="209"/>
+      <c r="Q11" s="209"/>
+      <c r="R11" s="209"/>
+      <c r="S11" s="209"/>
+      <c r="T11" s="209"/>
+      <c r="U11" s="210"/>
+      <c r="V11" s="208" t="s">
+        <v>409</v>
+      </c>
+      <c r="W11" s="209"/>
+      <c r="X11" s="209"/>
+      <c r="Y11" s="209"/>
+      <c r="Z11" s="209"/>
+      <c r="AA11" s="209"/>
+      <c r="AB11" s="209"/>
+      <c r="AC11" s="209"/>
+      <c r="AD11" s="209"/>
+      <c r="AE11" s="209"/>
+      <c r="AF11" s="209"/>
+      <c r="AG11" s="209"/>
+      <c r="AH11" s="210"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
@@ -39429,38 +39387,38 @@
       <c r="D12" s="74">
         <v>1</v>
       </c>
-      <c r="E12" s="223" t="s">
-        <v>415</v>
-      </c>
-      <c r="F12" s="224"/>
-      <c r="G12" s="224"/>
-      <c r="H12" s="224"/>
-      <c r="I12" s="224"/>
-      <c r="J12" s="224"/>
-      <c r="K12" s="224"/>
-      <c r="L12" s="224"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224"/>
-      <c r="O12" s="224"/>
-      <c r="P12" s="224"/>
-      <c r="Q12" s="224"/>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="224"/>
-      <c r="U12" s="225"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="108"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="108"/>
-      <c r="AE12" s="108"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="109"/>
+      <c r="E12" s="214" t="s">
+        <v>410</v>
+      </c>
+      <c r="F12" s="215"/>
+      <c r="G12" s="215"/>
+      <c r="H12" s="215"/>
+      <c r="I12" s="215"/>
+      <c r="J12" s="215"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="215"/>
+      <c r="O12" s="215"/>
+      <c r="P12" s="215"/>
+      <c r="Q12" s="215"/>
+      <c r="R12" s="215"/>
+      <c r="S12" s="215"/>
+      <c r="T12" s="215"/>
+      <c r="U12" s="216"/>
+      <c r="V12" s="144"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="145"/>
+      <c r="Z12" s="145"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="145"/>
+      <c r="AE12" s="145"/>
+      <c r="AF12" s="145"/>
+      <c r="AG12" s="145"/>
+      <c r="AH12" s="146"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
@@ -39488,39 +39446,39 @@
         <v>2</v>
       </c>
       <c r="E13" s="73"/>
-      <c r="F13" s="220" t="s">
-        <v>416</v>
-      </c>
-      <c r="G13" s="221"/>
-      <c r="H13" s="221"/>
-      <c r="I13" s="221"/>
-      <c r="J13" s="221"/>
-      <c r="K13" s="221"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="221"/>
-      <c r="N13" s="221"/>
-      <c r="O13" s="221"/>
-      <c r="P13" s="221"/>
-      <c r="Q13" s="221"/>
-      <c r="R13" s="221"/>
-      <c r="S13" s="221"/>
-      <c r="T13" s="221"/>
-      <c r="U13" s="222"/>
-      <c r="V13" s="226" t="s">
-        <v>417</v>
-      </c>
-      <c r="W13" s="227"/>
-      <c r="X13" s="227"/>
-      <c r="Y13" s="227"/>
-      <c r="Z13" s="227"/>
-      <c r="AA13" s="227"/>
-      <c r="AB13" s="227"/>
-      <c r="AC13" s="227"/>
-      <c r="AD13" s="227"/>
-      <c r="AE13" s="227"/>
-      <c r="AF13" s="227"/>
-      <c r="AG13" s="227"/>
-      <c r="AH13" s="228"/>
+      <c r="F13" s="211" t="s">
+        <v>411</v>
+      </c>
+      <c r="G13" s="212"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="212"/>
+      <c r="L13" s="212"/>
+      <c r="M13" s="212"/>
+      <c r="N13" s="212"/>
+      <c r="O13" s="212"/>
+      <c r="P13" s="212"/>
+      <c r="Q13" s="212"/>
+      <c r="R13" s="212"/>
+      <c r="S13" s="212"/>
+      <c r="T13" s="212"/>
+      <c r="U13" s="213"/>
+      <c r="V13" s="217" t="s">
+        <v>412</v>
+      </c>
+      <c r="W13" s="218"/>
+      <c r="X13" s="218"/>
+      <c r="Y13" s="218"/>
+      <c r="Z13" s="218"/>
+      <c r="AA13" s="218"/>
+      <c r="AB13" s="218"/>
+      <c r="AC13" s="218"/>
+      <c r="AD13" s="218"/>
+      <c r="AE13" s="218"/>
+      <c r="AF13" s="218"/>
+      <c r="AG13" s="218"/>
+      <c r="AH13" s="219"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
@@ -39548,39 +39506,39 @@
         <v>3</v>
       </c>
       <c r="E14" s="73"/>
-      <c r="F14" s="220" t="s">
-        <v>424</v>
-      </c>
-      <c r="G14" s="221"/>
-      <c r="H14" s="221"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="221"/>
-      <c r="K14" s="221"/>
-      <c r="L14" s="221"/>
-      <c r="M14" s="221"/>
-      <c r="N14" s="221"/>
-      <c r="O14" s="221"/>
-      <c r="P14" s="221"/>
-      <c r="Q14" s="221"/>
-      <c r="R14" s="221"/>
-      <c r="S14" s="221"/>
-      <c r="T14" s="221"/>
-      <c r="U14" s="222"/>
-      <c r="V14" s="220" t="s">
-        <v>418</v>
-      </c>
-      <c r="W14" s="221"/>
-      <c r="X14" s="221"/>
-      <c r="Y14" s="221"/>
-      <c r="Z14" s="221"/>
-      <c r="AA14" s="221"/>
-      <c r="AB14" s="221"/>
-      <c r="AC14" s="221"/>
-      <c r="AD14" s="221"/>
-      <c r="AE14" s="221"/>
-      <c r="AF14" s="221"/>
-      <c r="AG14" s="221"/>
-      <c r="AH14" s="222"/>
+      <c r="F14" s="211" t="s">
+        <v>419</v>
+      </c>
+      <c r="G14" s="212"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="212"/>
+      <c r="L14" s="212"/>
+      <c r="M14" s="212"/>
+      <c r="N14" s="212"/>
+      <c r="O14" s="212"/>
+      <c r="P14" s="212"/>
+      <c r="Q14" s="212"/>
+      <c r="R14" s="212"/>
+      <c r="S14" s="212"/>
+      <c r="T14" s="212"/>
+      <c r="U14" s="213"/>
+      <c r="V14" s="211" t="s">
+        <v>413</v>
+      </c>
+      <c r="W14" s="212"/>
+      <c r="X14" s="212"/>
+      <c r="Y14" s="212"/>
+      <c r="Z14" s="212"/>
+      <c r="AA14" s="212"/>
+      <c r="AB14" s="212"/>
+      <c r="AC14" s="212"/>
+      <c r="AD14" s="212"/>
+      <c r="AE14" s="212"/>
+      <c r="AF14" s="212"/>
+      <c r="AG14" s="212"/>
+      <c r="AH14" s="213"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
@@ -39608,39 +39566,39 @@
         <v>4</v>
       </c>
       <c r="E15" s="73"/>
-      <c r="F15" s="220" t="s">
-        <v>419</v>
-      </c>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="221"/>
-      <c r="L15" s="221"/>
-      <c r="M15" s="221"/>
-      <c r="N15" s="221"/>
-      <c r="O15" s="221"/>
-      <c r="P15" s="221"/>
-      <c r="Q15" s="221"/>
-      <c r="R15" s="221"/>
-      <c r="S15" s="221"/>
-      <c r="T15" s="221"/>
-      <c r="U15" s="222"/>
-      <c r="V15" s="220" t="s">
-        <v>420</v>
-      </c>
-      <c r="W15" s="221"/>
-      <c r="X15" s="221"/>
-      <c r="Y15" s="221"/>
-      <c r="Z15" s="221"/>
-      <c r="AA15" s="221"/>
-      <c r="AB15" s="221"/>
-      <c r="AC15" s="221"/>
-      <c r="AD15" s="221"/>
-      <c r="AE15" s="221"/>
-      <c r="AF15" s="221"/>
-      <c r="AG15" s="221"/>
-      <c r="AH15" s="222"/>
+      <c r="F15" s="211" t="s">
+        <v>414</v>
+      </c>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="212"/>
+      <c r="M15" s="212"/>
+      <c r="N15" s="212"/>
+      <c r="O15" s="212"/>
+      <c r="P15" s="212"/>
+      <c r="Q15" s="212"/>
+      <c r="R15" s="212"/>
+      <c r="S15" s="212"/>
+      <c r="T15" s="212"/>
+      <c r="U15" s="213"/>
+      <c r="V15" s="211" t="s">
+        <v>415</v>
+      </c>
+      <c r="W15" s="212"/>
+      <c r="X15" s="212"/>
+      <c r="Y15" s="212"/>
+      <c r="Z15" s="212"/>
+      <c r="AA15" s="212"/>
+      <c r="AB15" s="212"/>
+      <c r="AC15" s="212"/>
+      <c r="AD15" s="212"/>
+      <c r="AE15" s="212"/>
+      <c r="AF15" s="212"/>
+      <c r="AG15" s="212"/>
+      <c r="AH15" s="213"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
@@ -39667,40 +39625,40 @@
       <c r="D16" s="74">
         <v>5</v>
       </c>
-      <c r="E16" s="226" t="s">
-        <v>421</v>
-      </c>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="227"/>
-      <c r="O16" s="227"/>
-      <c r="P16" s="227"/>
-      <c r="Q16" s="227"/>
-      <c r="R16" s="227"/>
-      <c r="S16" s="227"/>
-      <c r="T16" s="227"/>
-      <c r="U16" s="228"/>
-      <c r="V16" s="220" t="s">
-        <v>422</v>
-      </c>
-      <c r="W16" s="221"/>
-      <c r="X16" s="221"/>
-      <c r="Y16" s="221"/>
-      <c r="Z16" s="221"/>
-      <c r="AA16" s="221"/>
-      <c r="AB16" s="221"/>
-      <c r="AC16" s="221"/>
-      <c r="AD16" s="221"/>
-      <c r="AE16" s="221"/>
-      <c r="AF16" s="221"/>
-      <c r="AG16" s="221"/>
-      <c r="AH16" s="222"/>
+      <c r="E16" s="217" t="s">
+        <v>416</v>
+      </c>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="218"/>
+      <c r="N16" s="218"/>
+      <c r="O16" s="218"/>
+      <c r="P16" s="218"/>
+      <c r="Q16" s="218"/>
+      <c r="R16" s="218"/>
+      <c r="S16" s="218"/>
+      <c r="T16" s="218"/>
+      <c r="U16" s="219"/>
+      <c r="V16" s="211" t="s">
+        <v>417</v>
+      </c>
+      <c r="W16" s="212"/>
+      <c r="X16" s="212"/>
+      <c r="Y16" s="212"/>
+      <c r="Z16" s="212"/>
+      <c r="AA16" s="212"/>
+      <c r="AB16" s="212"/>
+      <c r="AC16" s="212"/>
+      <c r="AD16" s="212"/>
+      <c r="AE16" s="212"/>
+      <c r="AF16" s="212"/>
+      <c r="AG16" s="212"/>
+      <c r="AH16" s="213"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="10"/>
       <c r="AK16" s="10"/>
@@ -39725,7 +39683,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="91" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -39781,7 +39739,7 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="91" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -39838,7 +39796,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="91"/>
       <c r="E19" s="91" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -39893,7 +39851,7 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="91" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -39950,7 +39908,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="91"/>
       <c r="E21" s="91" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -40005,7 +39963,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="91" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -40062,7 +40020,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="91"/>
       <c r="E23" s="91" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -40117,7 +40075,7 @@
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="91" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -40174,7 +40132,7 @@
       <c r="C25" s="12"/>
       <c r="D25" s="91"/>
       <c r="E25" s="91" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -40229,7 +40187,7 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="91" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -40285,7 +40243,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="91" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -40341,7 +40299,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="91" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -42284,15 +42242,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="V16:AH16"/>
     <mergeCell ref="E11:U11"/>
     <mergeCell ref="E12:U12"/>
@@ -42305,14 +42262,15 @@
     <mergeCell ref="V13:AH13"/>
     <mergeCell ref="V14:AH14"/>
     <mergeCell ref="V15:AH15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
